--- a/data/CPCRW_CW_subsampling_weights_6.26.xlsx
+++ b/data/CPCRW_CW_subsampling_weights_6.26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/OneDrive - PNNL/Documents/GitHub/TES-drydown/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/OneDrive - PNNL/GitHub/TES-drydown/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5889CD-A003-E64E-AECB-BC2517B79393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B4D9E6-CC50-E448-B1DD-60D46393C5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="142">
   <si>
     <t>Kaizad Patel</t>
   </si>
@@ -425,6 +425,60 @@
   <si>
     <t>Site</t>
   </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
 </sst>
 </file>
 
@@ -433,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dmmmyyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +574,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -784,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,36 +1176,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,10 +2629,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A24" sqref="A24:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3100,7 +3164,7 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +3196,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3232,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>13</v>
       </c>
@@ -3207,7 +3271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>13</v>
       </c>
@@ -3246,7 +3310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3346,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>13</v>
       </c>
@@ -3319,7 +3383,7 @@
       </c>
       <c r="M22" s="39"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -3358,23 +3422,436 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="183">
+        <v>14</v>
+      </c>
+      <c r="C24" s="182">
+        <v>250.29</v>
+      </c>
+      <c r="D24" s="182">
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="182">
+        <v>10.99</v>
+      </c>
+      <c r="F24" s="182">
+        <v>10.87</v>
+      </c>
+      <c r="G24" s="182">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="H24" s="182">
+        <v>155.06</v>
+      </c>
+      <c r="I24" s="182">
+        <v>65.13</v>
+      </c>
+      <c r="J24" s="182">
+        <v>106.46</v>
+      </c>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="182"/>
+      <c r="X24" s="182"/>
+      <c r="Y24" s="182"/>
+      <c r="Z24" s="182"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="183">
+        <v>48</v>
+      </c>
+      <c r="C25" s="182">
+        <v>230.79</v>
+      </c>
+      <c r="D25" s="182">
+        <v>3.5</v>
+      </c>
+      <c r="E25" s="182">
+        <v>10.91</v>
+      </c>
+      <c r="F25" s="182">
+        <v>10.97</v>
+      </c>
+      <c r="G25" s="182">
+        <v>61.6</v>
+      </c>
+      <c r="H25" s="182">
+        <v>138.85</v>
+      </c>
+      <c r="I25" s="182">
+        <v>47.47</v>
+      </c>
+      <c r="J25" s="182">
+        <v>123.44</v>
+      </c>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="182"/>
+      <c r="T25" s="182"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="182"/>
+      <c r="W25" s="182"/>
+      <c r="X25" s="182"/>
+      <c r="Y25" s="182"/>
+      <c r="Z25" s="182"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="183">
+        <v>35</v>
+      </c>
+      <c r="C26" s="182">
+        <v>185.13</v>
+      </c>
+      <c r="D26" s="182">
+        <v>8</v>
+      </c>
+      <c r="E26" s="182">
+        <v>10.98</v>
+      </c>
+      <c r="F26" s="182">
+        <v>10.85</v>
+      </c>
+      <c r="G26" s="182">
+        <v>83.09</v>
+      </c>
+      <c r="H26" s="182">
+        <v>76.83</v>
+      </c>
+      <c r="I26" s="182">
+        <v>65.739999999999995</v>
+      </c>
+      <c r="J26" s="182">
+        <v>46.79</v>
+      </c>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="182"/>
+      <c r="T26" s="182"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="182"/>
+      <c r="W26" s="182"/>
+      <c r="X26" s="182"/>
+      <c r="Y26" s="182"/>
+      <c r="Z26" s="182"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="183">
+        <v>49</v>
+      </c>
+      <c r="C27" s="182">
+        <v>149.11000000000001</v>
+      </c>
+      <c r="D27" s="182">
+        <v>8</v>
+      </c>
+      <c r="E27" s="182">
+        <v>10.97</v>
+      </c>
+      <c r="F27" s="182">
+        <v>11.03</v>
+      </c>
+      <c r="G27" s="182">
+        <v>47.5</v>
+      </c>
+      <c r="H27" s="182">
+        <v>74.78</v>
+      </c>
+      <c r="I27" s="182">
+        <v>36.31</v>
+      </c>
+      <c r="J27" s="182">
+        <v>44.03</v>
+      </c>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182"/>
+      <c r="T27" s="182"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="182"/>
+      <c r="W27" s="182"/>
+      <c r="X27" s="182"/>
+      <c r="Y27" s="182"/>
+      <c r="Z27" s="182"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="183">
+        <v>8</v>
+      </c>
+      <c r="C28" s="182">
+        <v>284.64999999999998</v>
+      </c>
+      <c r="D28" s="182">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E28" s="182">
+        <v>10.93</v>
+      </c>
+      <c r="F28" s="182">
+        <v>10.92</v>
+      </c>
+      <c r="G28" s="182">
+        <v>90.01</v>
+      </c>
+      <c r="H28" s="182">
+        <v>169.25</v>
+      </c>
+      <c r="I28" s="182">
+        <v>82.77</v>
+      </c>
+      <c r="J28" s="182">
+        <v>150.82</v>
+      </c>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="183">
+        <v>46</v>
+      </c>
+      <c r="C29" s="182">
+        <v>238.82</v>
+      </c>
+      <c r="D29" s="182">
+        <v>5</v>
+      </c>
+      <c r="E29" s="182">
+        <v>10.9</v>
+      </c>
+      <c r="F29" s="182">
+        <v>10.91</v>
+      </c>
+      <c r="G29" s="182">
+        <v>63.54</v>
+      </c>
+      <c r="H29" s="182">
+        <v>146.88</v>
+      </c>
+      <c r="I29" s="182">
+        <v>44.05</v>
+      </c>
+      <c r="J29" s="182">
+        <v>86.54</v>
+      </c>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="183">
+        <v>85</v>
+      </c>
+      <c r="C30" s="182">
+        <v>229.63</v>
+      </c>
+      <c r="D30" s="182">
+        <v>4.2</v>
+      </c>
+      <c r="E30" s="182">
+        <v>10.97</v>
+      </c>
+      <c r="F30" s="182">
+        <v>10.93</v>
+      </c>
+      <c r="G30" s="182">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="H30" s="182">
+        <v>139.66</v>
+      </c>
+      <c r="I30" s="182">
+        <v>65.56</v>
+      </c>
+      <c r="J30" s="182">
+        <v>58.62</v>
+      </c>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="183">
+        <v>79</v>
+      </c>
+      <c r="C31" s="182">
+        <v>237.03</v>
+      </c>
+      <c r="D31" s="182">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="182">
+        <v>10.88</v>
+      </c>
+      <c r="F31" s="182">
+        <v>10.91</v>
+      </c>
+      <c r="G31" s="182">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="H31" s="182">
+        <v>141.35</v>
+      </c>
+      <c r="I31" s="182">
+        <v>52.31</v>
+      </c>
+      <c r="J31" s="182">
+        <v>121.36</v>
+      </c>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="183">
+        <v>33</v>
+      </c>
+      <c r="C32" s="182">
+        <v>263.99</v>
+      </c>
+      <c r="D32" s="182">
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="182">
+        <v>10.99</v>
+      </c>
+      <c r="F32" s="182">
+        <v>11.03</v>
+      </c>
+      <c r="G32" s="182">
+        <v>106.1</v>
+      </c>
+      <c r="H32" s="182">
+        <v>126.43</v>
+      </c>
+      <c r="I32" s="182">
+        <v>81.23</v>
+      </c>
+      <c r="J32" s="182">
+        <v>43.95</v>
+      </c>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3383,11 +3860,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125:XFD125"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258:Z275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3482,7 +3959,7 @@
         <f t="shared" ref="I2:I49" si="2">(($G2-$H2)/$H2)*100</f>
         <v>543.75000000000034</v>
       </c>
-      <c r="J2" s="172">
+      <c r="J2" s="174">
         <f>AVERAGE(I2:I4)</f>
         <v>552.36111111111143</v>
       </c>
@@ -3611,7 +4088,7 @@
         <f t="shared" si="2"/>
         <v>52.307692307692285</v>
       </c>
-      <c r="J5" s="172">
+      <c r="J5" s="174">
         <f>AVERAGE(I5:I7)</f>
         <v>50.785024814875534</v>
       </c>
@@ -3740,7 +4217,7 @@
         <f t="shared" si="2"/>
         <v>24.691358024691322</v>
       </c>
-      <c r="J8" s="172">
+      <c r="J8" s="174">
         <f>AVERAGE(I8:I10)</f>
         <v>25.845914522286648</v>
       </c>
@@ -3869,7 +4346,7 @@
         <f t="shared" si="2"/>
         <v>21.951219512195085</v>
       </c>
-      <c r="J11" s="172">
+      <c r="J11" s="174">
         <f>AVERAGE(I11:I13)</f>
         <v>23.37398373983736</v>
       </c>
@@ -3998,7 +4475,7 @@
         <f t="shared" si="2"/>
         <v>58.064516129032285</v>
       </c>
-      <c r="J14" s="172">
+      <c r="J14" s="174">
         <f>AVERAGE(I14:I16)</f>
         <v>59.56647892131766</v>
       </c>
@@ -4127,7 +4604,7 @@
         <f t="shared" si="2"/>
         <v>58.064516129032285</v>
       </c>
-      <c r="J17" s="172">
+      <c r="J17" s="174">
         <f>AVERAGE(I17:I19)</f>
         <v>52.711134155525123</v>
       </c>
@@ -4248,7 +4725,7 @@
         <f t="shared" si="2"/>
         <v>86.538461538461533</v>
       </c>
-      <c r="J20" s="172">
+      <c r="J20" s="174">
         <f>AVERAGE(I20:I22)</f>
         <v>90.426400759734079</v>
       </c>
@@ -4377,7 +4854,7 @@
         <f t="shared" si="2"/>
         <v>19.999999999999989</v>
       </c>
-      <c r="J23" s="172">
+      <c r="J23" s="174">
         <f>AVERAGE(I23:I25)</f>
         <v>20.806151435008299</v>
       </c>
@@ -4506,7 +4983,7 @@
         <f t="shared" si="2"/>
         <v>621.42857142857179</v>
       </c>
-      <c r="J26" s="172">
+      <c r="J26" s="174">
         <f>AVERAGE(I26:I28)</f>
         <v>669.10866910866923</v>
       </c>
@@ -4638,7 +5115,7 @@
         <f t="shared" si="2"/>
         <v>1199.9999999999986</v>
       </c>
-      <c r="J29" s="172">
+      <c r="J29" s="174">
         <f>AVERAGE(I29:I31)</f>
         <v>1077.7777777777767</v>
       </c>
@@ -4770,7 +5247,7 @@
         <f t="shared" si="2"/>
         <v>54.687500000000021</v>
       </c>
-      <c r="J32" s="172">
+      <c r="J32" s="174">
         <f>AVERAGE(I32:I34)</f>
         <v>42.672030583214784</v>
       </c>
@@ -4903,7 +5380,7 @@
         <f t="shared" si="2"/>
         <v>129.54545454545459</v>
       </c>
-      <c r="J35" s="172">
+      <c r="J35" s="174">
         <f>AVERAGE(I35:I37)</f>
         <v>132.06483439041583</v>
       </c>
@@ -5035,7 +5512,7 @@
         <f t="shared" si="2"/>
         <v>607.14285714285745</v>
       </c>
-      <c r="J38" s="172">
+      <c r="J38" s="174">
         <f>AVERAGE(I38:I40)</f>
         <v>552.38095238095275</v>
       </c>
@@ -5167,7 +5644,7 @@
         <f t="shared" si="2"/>
         <v>54.545454545454561</v>
       </c>
-      <c r="J41" s="172">
+      <c r="J41" s="174">
         <f>AVERAGE(I41:I43)</f>
         <v>58.958027859237554</v>
       </c>
@@ -5291,7 +5768,7 @@
         <f t="shared" si="2"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="J44" s="172">
+      <c r="J44" s="174">
         <f>AVERAGE(I44:I46)</f>
         <v>253.98467432950179</v>
       </c>
@@ -5399,7 +5876,7 @@
         <f t="shared" si="2"/>
         <v>26.249999999999968</v>
       </c>
-      <c r="J47" s="172">
+      <c r="J47" s="174">
         <f>AVERAGE(I47:I49)</f>
         <v>25.202991452991437</v>
       </c>
@@ -5534,10 +6011,10 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="I53" s="80">
-        <f t="shared" ref="I53:I127" si="5">(($G53-$H53)/$H53)*100</f>
+        <f t="shared" ref="I53:I124" si="5">(($G53-$H53)/$H53)*100</f>
         <v>63.934426229508169</v>
       </c>
-      <c r="J53" s="173">
+      <c r="J53" s="172">
         <f>AVERAGE(I53:I55)</f>
         <v>63.135771332492624</v>
       </c>
@@ -5575,7 +6052,7 @@
         <f t="shared" si="5"/>
         <v>63.934426229508169</v>
       </c>
-      <c r="J54" s="168"/>
+      <c r="J54" s="169"/>
       <c r="N54" s="11"/>
       <c r="R54" s="11"/>
     </row>
@@ -5610,7 +6087,7 @@
         <f t="shared" si="5"/>
         <v>61.538461538461533</v>
       </c>
-      <c r="J55" s="169"/>
+      <c r="J55" s="170"/>
       <c r="N55" s="11"/>
       <c r="R55" s="11"/>
     </row>
@@ -5645,7 +6122,7 @@
         <f t="shared" si="5"/>
         <v>122.22222222222226</v>
       </c>
-      <c r="J56" s="173">
+      <c r="J56" s="172">
         <f>AVERAGE(I56:I58)</f>
         <v>77.706552706552699</v>
       </c>
@@ -5683,7 +6160,7 @@
         <f t="shared" si="5"/>
         <v>49.230769230769198</v>
       </c>
-      <c r="J57" s="168"/>
+      <c r="J57" s="169"/>
       <c r="N57" s="11"/>
       <c r="R57" s="11"/>
     </row>
@@ -5718,7 +6195,7 @@
         <f t="shared" si="5"/>
         <v>61.666666666666636</v>
       </c>
-      <c r="J58" s="169"/>
+      <c r="J58" s="170"/>
       <c r="N58" s="11"/>
       <c r="R58" s="11"/>
     </row>
@@ -5753,7 +6230,7 @@
         <f t="shared" si="5"/>
         <v>799.9999999999992</v>
       </c>
-      <c r="J59" s="174">
+      <c r="J59" s="173">
         <f>AVERAGE(I59:I61)</f>
         <v>792.17171717171675</v>
       </c>
@@ -5791,7 +6268,7 @@
         <f t="shared" si="5"/>
         <v>818.18181818181711</v>
       </c>
-      <c r="J60" s="168"/>
+      <c r="J60" s="169"/>
       <c r="N60" s="11"/>
       <c r="R60" s="11"/>
     </row>
@@ -5826,7 +6303,7 @@
         <f t="shared" si="5"/>
         <v>758.33333333333417</v>
       </c>
-      <c r="J61" s="169"/>
+      <c r="J61" s="170"/>
       <c r="N61" s="11"/>
       <c r="R61" s="11"/>
     </row>
@@ -5861,7 +6338,7 @@
         <f t="shared" si="5"/>
         <v>166.66666666666674</v>
       </c>
-      <c r="J62" s="173">
+      <c r="J62" s="172">
         <f>AVERAGE(I62:I64)</f>
         <v>126.38888888888887</v>
       </c>
@@ -5899,7 +6376,7 @@
         <f t="shared" si="5"/>
         <v>112.49999999999996</v>
       </c>
-      <c r="J63" s="168"/>
+      <c r="J63" s="169"/>
       <c r="N63" s="11"/>
       <c r="R63" s="11"/>
     </row>
@@ -5934,7 +6411,7 @@
         <f t="shared" si="5"/>
         <v>99.999999999999957</v>
       </c>
-      <c r="J64" s="169"/>
+      <c r="J64" s="170"/>
       <c r="N64" s="11"/>
       <c r="R64" s="11"/>
     </row>
@@ -5969,7 +6446,7 @@
         <f t="shared" si="5"/>
         <v>25.3012048192771</v>
       </c>
-      <c r="J65" s="173">
+      <c r="J65" s="172">
         <f>AVERAGE(I65:I67)</f>
         <v>26.049768695033276</v>
       </c>
@@ -6007,7 +6484,7 @@
         <f t="shared" si="5"/>
         <v>27.848101265822748</v>
       </c>
-      <c r="J66" s="168"/>
+      <c r="J66" s="169"/>
       <c r="N66" s="11"/>
       <c r="R66" s="11"/>
     </row>
@@ -6042,7 +6519,7 @@
         <f t="shared" si="5"/>
         <v>24.999999999999968</v>
       </c>
-      <c r="J67" s="169"/>
+      <c r="J67" s="170"/>
       <c r="N67" s="11"/>
       <c r="R67" s="11"/>
     </row>
@@ -6077,7 +6554,7 @@
         <f t="shared" si="5"/>
         <v>24.69135802469135</v>
       </c>
-      <c r="J68" s="173">
+      <c r="J68" s="172">
         <f>AVERAGE(I68:I70)</f>
         <v>23.182945573320069</v>
       </c>
@@ -6115,7 +6592,7 @@
         <f t="shared" si="5"/>
         <v>21.686746987951796</v>
       </c>
-      <c r="J69" s="168"/>
+      <c r="J69" s="169"/>
       <c r="N69" s="11"/>
       <c r="R69" s="11"/>
     </row>
@@ -6150,7 +6627,7 @@
         <f t="shared" si="5"/>
         <v>23.170731707317067</v>
       </c>
-      <c r="J70" s="169"/>
+      <c r="J70" s="170"/>
       <c r="N70" s="11"/>
       <c r="R70" s="11"/>
     </row>
@@ -6185,7 +6662,7 @@
         <f t="shared" si="5"/>
         <v>75.438596491228054</v>
       </c>
-      <c r="J71" s="173">
+      <c r="J71" s="172">
         <f>AVERAGE(I71:I73)</f>
         <v>72.234949537023226</v>
       </c>
@@ -6223,7 +6700,7 @@
         <f t="shared" si="5"/>
         <v>72.413793103448228</v>
       </c>
-      <c r="J72" s="168"/>
+      <c r="J72" s="169"/>
       <c r="N72" s="11"/>
       <c r="R72" s="11"/>
     </row>
@@ -6258,7 +6735,7 @@
         <f t="shared" si="5"/>
         <v>68.852459016393382</v>
       </c>
-      <c r="J73" s="169"/>
+      <c r="J73" s="170"/>
       <c r="N73" s="11"/>
       <c r="R73" s="11"/>
     </row>
@@ -6293,7 +6770,7 @@
         <f t="shared" si="5"/>
         <v>72.881355932203377</v>
       </c>
-      <c r="J74" s="173">
+      <c r="J74" s="172">
         <f>AVERAGE(I74:I76)</f>
         <v>72.408324532351699</v>
       </c>
@@ -6331,7 +6808,7 @@
         <f t="shared" si="5"/>
         <v>72.413793103448228</v>
       </c>
-      <c r="J75" s="168"/>
+      <c r="J75" s="169"/>
       <c r="N75" s="11"/>
       <c r="R75" s="11"/>
     </row>
@@ -6366,7 +6843,7 @@
         <f t="shared" si="5"/>
         <v>71.929824561403493</v>
       </c>
-      <c r="J76" s="169"/>
+      <c r="J76" s="170"/>
       <c r="N76" s="11"/>
       <c r="R76" s="11"/>
     </row>
@@ -6401,7 +6878,7 @@
         <f t="shared" si="5"/>
         <v>72.881355932203377</v>
       </c>
-      <c r="J77" s="173">
+      <c r="J77" s="172">
         <f>AVERAGE(I77:I79)</f>
         <v>65.182899577130669</v>
       </c>
@@ -6439,7 +6916,7 @@
         <f t="shared" si="5"/>
         <v>74.137931034482733</v>
       </c>
-      <c r="J78" s="168"/>
+      <c r="J78" s="169"/>
       <c r="N78" s="11"/>
       <c r="R78" s="11"/>
     </row>
@@ -6474,7 +6951,7 @@
         <f t="shared" si="5"/>
         <v>48.529411764705898</v>
       </c>
-      <c r="J79" s="169"/>
+      <c r="J79" s="170"/>
       <c r="N79" s="11"/>
       <c r="R79" s="11"/>
     </row>
@@ -6509,7 +6986,7 @@
         <f t="shared" si="5"/>
         <v>15.730337078651701</v>
       </c>
-      <c r="J80" s="173">
+      <c r="J80" s="172">
         <f>AVERAGE(I80:I82)</f>
         <v>17.033133178458385</v>
       </c>
@@ -6547,7 +7024,7 @@
         <f t="shared" si="5"/>
         <v>19.277108433734931</v>
       </c>
-      <c r="J81" s="168"/>
+      <c r="J81" s="169"/>
       <c r="N81" s="11"/>
       <c r="R81" s="11"/>
     </row>
@@ -6582,7 +7059,7 @@
         <f t="shared" si="5"/>
         <v>16.091954022988521</v>
       </c>
-      <c r="J82" s="169"/>
+      <c r="J82" s="170"/>
       <c r="N82" s="11"/>
       <c r="R82" s="11"/>
     </row>
@@ -6617,7 +7094,7 @@
         <f t="shared" si="5"/>
         <v>466.6666666666668</v>
       </c>
-      <c r="J83" s="174">
+      <c r="J83" s="173">
         <f>AVERAGE(I83:I85)</f>
         <v>487.17320261437925</v>
       </c>
@@ -6655,7 +7132,7 @@
         <f t="shared" si="5"/>
         <v>512.50000000000023</v>
       </c>
-      <c r="J84" s="168"/>
+      <c r="J84" s="169"/>
       <c r="N84" s="11"/>
       <c r="R84" s="11"/>
     </row>
@@ -6690,7 +7167,7 @@
         <f t="shared" si="5"/>
         <v>482.35294117647084</v>
       </c>
-      <c r="J85" s="169"/>
+      <c r="J85" s="170"/>
       <c r="N85" s="11"/>
       <c r="R85" s="11"/>
     </row>
@@ -6725,7 +7202,7 @@
         <f t="shared" si="5"/>
         <v>124.44444444444443</v>
       </c>
-      <c r="J86" s="173">
+      <c r="J86" s="172">
         <f>AVERAGE(I86:I88)</f>
         <v>104.27685604156191</v>
       </c>
@@ -6763,7 +7240,7 @@
         <f t="shared" si="5"/>
         <v>96.078431372548977</v>
       </c>
-      <c r="J87" s="168"/>
+      <c r="J87" s="169"/>
       <c r="N87" s="11"/>
       <c r="R87" s="11"/>
     </row>
@@ -6798,7 +7275,7 @@
         <f t="shared" si="5"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="J88" s="169"/>
+      <c r="J88" s="170"/>
       <c r="N88" s="11"/>
       <c r="R88" s="11"/>
     </row>
@@ -6833,7 +7310,7 @@
         <f t="shared" si="5"/>
         <v>44.927536231884069</v>
       </c>
-      <c r="J89" s="173">
+      <c r="J89" s="172">
         <f>AVERAGE(I89:I91)</f>
         <v>44.988773219024296</v>
       </c>
@@ -6871,7 +7348,7 @@
         <f t="shared" si="5"/>
         <v>43.661971830985898</v>
       </c>
-      <c r="J90" s="168"/>
+      <c r="J90" s="169"/>
       <c r="N90" s="11"/>
       <c r="R90" s="11"/>
     </row>
@@ -6906,7 +7383,7 @@
         <f t="shared" si="5"/>
         <v>46.376811594202913</v>
       </c>
-      <c r="J91" s="169"/>
+      <c r="J91" s="170"/>
       <c r="N91" s="11"/>
       <c r="R91" s="11"/>
     </row>
@@ -6941,7 +7418,7 @@
         <f t="shared" si="5"/>
         <v>37.837837837837839</v>
       </c>
-      <c r="J92" s="173">
+      <c r="J92" s="172">
         <f>AVERAGE(I92:I94)</f>
         <v>38.56456456456457</v>
       </c>
@@ -6979,7 +7456,7 @@
         <f t="shared" si="5"/>
         <v>39.189189189189193</v>
       </c>
-      <c r="J93" s="168"/>
+      <c r="J93" s="169"/>
       <c r="N93" s="11"/>
       <c r="R93" s="11"/>
     </row>
@@ -7014,7 +7491,7 @@
         <f t="shared" si="5"/>
         <v>38.666666666666671</v>
       </c>
-      <c r="J94" s="169"/>
+      <c r="J94" s="170"/>
       <c r="N94" s="11"/>
       <c r="R94" s="11"/>
     </row>
@@ -7049,7 +7526,7 @@
         <f t="shared" si="5"/>
         <v>506.25000000000028</v>
       </c>
-      <c r="J95" s="174">
+      <c r="J95" s="173">
         <f>AVERAGE(I95:I97)</f>
         <v>544.04761904761892</v>
       </c>
@@ -7087,7 +7564,7 @@
         <f t="shared" si="5"/>
         <v>518.75000000000023</v>
       </c>
-      <c r="J96" s="168"/>
+      <c r="J96" s="169"/>
       <c r="N96" s="11"/>
       <c r="R96" s="11"/>
     </row>
@@ -7122,7 +7599,7 @@
         <f t="shared" si="5"/>
         <v>607.14285714285654</v>
       </c>
-      <c r="J97" s="169"/>
+      <c r="J97" s="170"/>
       <c r="N97" s="11"/>
       <c r="R97" s="11"/>
     </row>
@@ -7157,7 +7634,7 @@
         <f t="shared" si="5"/>
         <v>371.42857142857139</v>
       </c>
-      <c r="J98" s="174">
+      <c r="J98" s="173">
         <f>AVERAGE(I98:I100)</f>
         <v>366.23376623376629</v>
       </c>
@@ -7195,7 +7672,7 @@
         <f t="shared" si="5"/>
         <v>368.18181818181824</v>
       </c>
-      <c r="J99" s="168"/>
+      <c r="J99" s="169"/>
       <c r="N99" s="11"/>
       <c r="R99" s="11"/>
     </row>
@@ -7230,7 +7707,7 @@
         <f t="shared" si="5"/>
         <v>359.09090909090918</v>
       </c>
-      <c r="J100" s="169"/>
+      <c r="J100" s="170"/>
       <c r="N100" s="11"/>
       <c r="R100" s="11"/>
     </row>
@@ -7265,7 +7742,7 @@
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="J101" s="174">
+      <c r="J101" s="173">
         <f>AVERAGE(I101:I103)</f>
         <v>305.4957264957265</v>
       </c>
@@ -7303,7 +7780,7 @@
         <f t="shared" si="5"/>
         <v>308.33333333333337</v>
       </c>
-      <c r="J102" s="168"/>
+      <c r="J102" s="169"/>
       <c r="N102" s="11"/>
       <c r="R102" s="11"/>
     </row>
@@ -7338,7 +7815,7 @@
         <f t="shared" si="5"/>
         <v>296.15384615384608</v>
       </c>
-      <c r="J103" s="169"/>
+      <c r="J103" s="170"/>
       <c r="N103" s="11"/>
       <c r="R103" s="11"/>
     </row>
@@ -7373,7 +7850,7 @@
         <f t="shared" si="5"/>
         <v>44.285714285714292</v>
       </c>
-      <c r="J104" s="173">
+      <c r="J104" s="172">
         <f>AVERAGE(I104:I106)</f>
         <v>40.337480337480336</v>
       </c>
@@ -7411,7 +7888,7 @@
         <f t="shared" si="5"/>
         <v>38.888888888888893</v>
       </c>
-      <c r="J105" s="168"/>
+      <c r="J105" s="169"/>
       <c r="N105" s="11"/>
       <c r="R105" s="11"/>
     </row>
@@ -7446,7 +7923,7 @@
         <f t="shared" si="5"/>
         <v>37.83783783783781</v>
       </c>
-      <c r="J106" s="169"/>
+      <c r="J106" s="170"/>
       <c r="N106" s="11"/>
       <c r="R106" s="11"/>
     </row>
@@ -7481,7 +7958,7 @@
         <f t="shared" si="5"/>
         <v>161.5384615384616</v>
       </c>
-      <c r="J107" s="173">
+      <c r="J107" s="172">
         <f>AVERAGE(I107:I109)</f>
         <v>152.49453388988275</v>
       </c>
@@ -7519,7 +7996,7 @@
         <f t="shared" si="5"/>
         <v>156.41025641025641</v>
       </c>
-      <c r="J108" s="168"/>
+      <c r="J108" s="169"/>
       <c r="N108" s="11"/>
       <c r="R108" s="11"/>
     </row>
@@ -7554,7 +8031,7 @@
         <f t="shared" si="5"/>
         <v>139.53488372093022</v>
       </c>
-      <c r="J109" s="169"/>
+      <c r="J109" s="170"/>
       <c r="N109" s="11"/>
       <c r="R109" s="11"/>
     </row>
@@ -7589,7 +8066,7 @@
         <f t="shared" si="5"/>
         <v>23.456790123456756</v>
       </c>
-      <c r="J110" s="173">
+      <c r="J110" s="172">
         <f>AVERAGE(I110:I112)</f>
         <v>23.981139856021471</v>
       </c>
@@ -7627,7 +8104,7 @@
         <f t="shared" si="5"/>
         <v>24.09638554216864</v>
       </c>
-      <c r="J111" s="168"/>
+      <c r="J111" s="169"/>
       <c r="N111" s="11"/>
       <c r="R111" s="11"/>
     </row>
@@ -7662,7 +8139,7 @@
         <f t="shared" si="5"/>
         <v>24.390243902439018</v>
       </c>
-      <c r="J112" s="169"/>
+      <c r="J112" s="170"/>
       <c r="N112" s="11"/>
       <c r="R112" s="11"/>
     </row>
@@ -7697,7 +8174,7 @@
         <f t="shared" si="5"/>
         <v>27.160493827160458</v>
       </c>
-      <c r="J113" s="173">
+      <c r="J113" s="172">
         <f>AVERAGE(I113:I115)</f>
         <v>30.192386831275709</v>
       </c>
@@ -7735,7 +8212,7 @@
         <f t="shared" si="5"/>
         <v>28.749999999999996</v>
       </c>
-      <c r="J114" s="168"/>
+      <c r="J114" s="169"/>
       <c r="N114" s="11"/>
       <c r="R114" s="11"/>
     </row>
@@ -7770,7 +8247,7 @@
         <f t="shared" si="5"/>
         <v>34.666666666666671</v>
       </c>
-      <c r="J115" s="169"/>
+      <c r="J115" s="170"/>
       <c r="N115" s="11"/>
       <c r="R115" s="11"/>
     </row>
@@ -7805,7 +8282,7 @@
         <f t="shared" si="5"/>
         <v>19.277108433734931</v>
       </c>
-      <c r="J116" s="173">
+      <c r="J116" s="172">
         <f>AVERAGE(I116:I118)</f>
         <v>17.933639319181466</v>
       </c>
@@ -7843,7 +8320,7 @@
         <f t="shared" si="5"/>
         <v>16.666666666666625</v>
       </c>
-      <c r="J117" s="168"/>
+      <c r="J117" s="169"/>
       <c r="N117" s="11"/>
       <c r="R117" s="11"/>
     </row>
@@ -7878,7 +8355,7 @@
         <f t="shared" si="5"/>
         <v>17.857142857142843</v>
       </c>
-      <c r="J118" s="169"/>
+      <c r="J118" s="170"/>
       <c r="N118" s="11"/>
       <c r="R118" s="11"/>
     </row>
@@ -7913,7 +8390,7 @@
         <f t="shared" si="5"/>
         <v>55.384615384615408</v>
       </c>
-      <c r="J119" s="173">
+      <c r="J119" s="172">
         <f>AVERAGE(I119:I121)</f>
         <v>55.91418997668999</v>
       </c>
@@ -7951,7 +8428,7 @@
         <f t="shared" si="5"/>
         <v>54.545454545454561</v>
       </c>
-      <c r="J120" s="168"/>
+      <c r="J120" s="169"/>
       <c r="N120" s="11"/>
       <c r="R120" s="11"/>
     </row>
@@ -7986,7 +8463,7 @@
         <f t="shared" si="5"/>
         <v>57.812499999999986</v>
       </c>
-      <c r="J121" s="169"/>
+      <c r="J121" s="170"/>
       <c r="N121" s="11"/>
       <c r="R121" s="11"/>
     </row>
@@ -8021,7 +8498,7 @@
         <f t="shared" si="5"/>
         <v>592.85714285714334</v>
       </c>
-      <c r="J122" s="174">
+      <c r="J122" s="173">
         <f>AVERAGE(I122:I124)</f>
         <v>600.00000000000045</v>
       </c>
@@ -8059,7 +8536,7 @@
         <f t="shared" si="5"/>
         <v>600.00000000000045</v>
       </c>
-      <c r="J123" s="168"/>
+      <c r="J123" s="169"/>
       <c r="N123" s="11"/>
       <c r="R123" s="11"/>
     </row>
@@ -8094,7 +8571,7 @@
         <f t="shared" si="5"/>
         <v>607.14285714285768</v>
       </c>
-      <c r="J124" s="169"/>
+      <c r="J124" s="170"/>
       <c r="N124" s="11"/>
       <c r="R124" s="11"/>
     </row>
@@ -8134,10 +8611,10 @@
       <c r="R125" s="11"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="167">
+      <c r="A126" s="168">
         <v>4</v>
       </c>
-      <c r="B126" s="167" t="s">
+      <c r="B126" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C126" s="121">
@@ -8161,7 +8638,7 @@
       <c r="I126" s="124">
         <v>88.14</v>
       </c>
-      <c r="J126" s="167">
+      <c r="J126" s="168">
         <v>89.04</v>
       </c>
       <c r="K126" s="60"/>
@@ -8169,8 +8646,8 @@
       <c r="R126" s="11"/>
     </row>
     <row r="127" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="168"/>
-      <c r="B127" s="168"/>
+      <c r="A127" s="169"/>
+      <c r="B127" s="169"/>
       <c r="C127" s="121">
         <v>3</v>
       </c>
@@ -8192,14 +8669,14 @@
       <c r="I127" s="124">
         <v>91.94</v>
       </c>
-      <c r="J127" s="168"/>
+      <c r="J127" s="169"/>
       <c r="K127" s="60"/>
       <c r="N127" s="11"/>
       <c r="R127" s="11"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="169"/>
-      <c r="B128" s="169"/>
+      <c r="A128" s="170"/>
+      <c r="B128" s="170"/>
       <c r="C128" s="121">
         <v>38</v>
       </c>
@@ -8221,16 +8698,16 @@
       <c r="I128" s="124">
         <v>87.04</v>
       </c>
-      <c r="J128" s="169"/>
+      <c r="J128" s="170"/>
       <c r="K128" s="60"/>
       <c r="N128" s="11"/>
       <c r="R128" s="11"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="167">
+      <c r="A129" s="168">
         <v>4</v>
       </c>
-      <c r="B129" s="167" t="s">
+      <c r="B129" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C129" s="121">
@@ -8254,7 +8731,7 @@
       <c r="I129" s="124">
         <v>27.66</v>
       </c>
-      <c r="J129" s="167">
+      <c r="J129" s="168">
         <v>29.81</v>
       </c>
       <c r="K129" s="60"/>
@@ -8262,8 +8739,8 @@
       <c r="R129" s="11"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="168"/>
-      <c r="B130" s="168"/>
+      <c r="A130" s="169"/>
+      <c r="B130" s="169"/>
       <c r="C130" s="121">
         <v>4</v>
       </c>
@@ -8285,14 +8762,14 @@
       <c r="I130" s="124">
         <v>31.46</v>
       </c>
-      <c r="J130" s="168"/>
+      <c r="J130" s="169"/>
       <c r="K130" s="60"/>
       <c r="N130" s="11"/>
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="169"/>
-      <c r="B131" s="169"/>
+      <c r="A131" s="170"/>
+      <c r="B131" s="170"/>
       <c r="C131" s="121">
         <v>2</v>
       </c>
@@ -8314,16 +8791,16 @@
       <c r="I131" s="124">
         <v>30.3</v>
       </c>
-      <c r="J131" s="169"/>
+      <c r="J131" s="170"/>
       <c r="K131" s="60"/>
       <c r="N131" s="11"/>
       <c r="R131" s="11"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="167">
+      <c r="A132" s="168">
         <v>50</v>
       </c>
-      <c r="B132" s="167" t="s">
+      <c r="B132" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="121">
@@ -8347,7 +8824,7 @@
       <c r="I132" s="124">
         <v>368.18</v>
       </c>
-      <c r="J132" s="167">
+      <c r="J132" s="168">
         <v>397.44</v>
       </c>
       <c r="K132" s="60"/>
@@ -8355,8 +8832,8 @@
       <c r="R132" s="11"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="168"/>
-      <c r="B133" s="168"/>
+      <c r="A133" s="169"/>
+      <c r="B133" s="169"/>
       <c r="C133" s="130">
         <v>4</v>
       </c>
@@ -8378,14 +8855,14 @@
       <c r="I133" s="2">
         <v>339.13</v>
       </c>
-      <c r="J133" s="168"/>
+      <c r="J133" s="169"/>
       <c r="K133" s="60"/>
       <c r="N133" s="11"/>
       <c r="R133" s="11"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="169"/>
-      <c r="B134" s="169"/>
+      <c r="A134" s="170"/>
+      <c r="B134" s="170"/>
       <c r="C134" s="121">
         <v>2</v>
       </c>
@@ -8407,16 +8884,16 @@
       <c r="I134" s="2">
         <v>485</v>
       </c>
-      <c r="J134" s="169"/>
+      <c r="J134" s="170"/>
       <c r="K134" s="60"/>
       <c r="N134" s="11"/>
       <c r="R134" s="11"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="167">
+      <c r="A135" s="168">
         <v>50</v>
       </c>
-      <c r="B135" s="167" t="s">
+      <c r="B135" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C135" s="121">
@@ -8440,7 +8917,7 @@
       <c r="I135" s="2">
         <v>52.7</v>
       </c>
-      <c r="J135" s="167">
+      <c r="J135" s="168">
         <v>49.23</v>
       </c>
       <c r="K135" s="60"/>
@@ -8448,8 +8925,8 @@
       <c r="R135" s="11"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="168"/>
-      <c r="B136" s="168"/>
+      <c r="A136" s="169"/>
+      <c r="B136" s="169"/>
       <c r="C136" s="121">
         <v>37</v>
       </c>
@@ -8471,14 +8948,14 @@
       <c r="I136" s="2">
         <v>61.67</v>
       </c>
-      <c r="J136" s="168"/>
+      <c r="J136" s="169"/>
       <c r="K136" s="60"/>
       <c r="N136" s="11"/>
       <c r="R136" s="11"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="169"/>
-      <c r="B137" s="169"/>
+      <c r="A137" s="170"/>
+      <c r="B137" s="170"/>
       <c r="C137" s="121">
         <v>3</v>
       </c>
@@ -8500,16 +8977,16 @@
       <c r="I137" s="2">
         <v>33.33</v>
       </c>
-      <c r="J137" s="169"/>
+      <c r="J137" s="170"/>
       <c r="K137" s="60"/>
       <c r="N137" s="11"/>
       <c r="R137" s="11"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="167">
+      <c r="A138" s="168">
         <v>16</v>
       </c>
-      <c r="B138" s="167" t="s">
+      <c r="B138" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C138" s="121">
@@ -8533,7 +9010,7 @@
       <c r="I138" s="2">
         <v>64.52</v>
       </c>
-      <c r="J138" s="167">
+      <c r="J138" s="168">
         <v>62.59</v>
       </c>
       <c r="K138" s="60"/>
@@ -8541,8 +9018,8 @@
       <c r="R138" s="11"/>
     </row>
     <row r="139" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="168"/>
-      <c r="B139" s="168"/>
+      <c r="A139" s="169"/>
+      <c r="B139" s="169"/>
       <c r="C139" s="121">
         <v>1</v>
       </c>
@@ -8564,14 +9041,14 @@
       <c r="I139" s="2">
         <v>58.73</v>
       </c>
-      <c r="J139" s="168"/>
+      <c r="J139" s="169"/>
       <c r="K139" s="60"/>
       <c r="N139" s="11"/>
       <c r="R139" s="11"/>
     </row>
     <row r="140" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="169"/>
-      <c r="B140" s="169"/>
+      <c r="A140" s="170"/>
+      <c r="B140" s="170"/>
       <c r="C140" s="121">
         <v>3</v>
       </c>
@@ -8593,16 +9070,16 @@
       <c r="I140" s="2">
         <v>64.52</v>
       </c>
-      <c r="J140" s="169"/>
+      <c r="J140" s="170"/>
       <c r="K140" s="60"/>
       <c r="N140" s="11"/>
       <c r="R140" s="11"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="167">
+      <c r="A141" s="168">
         <v>16</v>
       </c>
-      <c r="B141" s="167" t="s">
+      <c r="B141" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C141" s="121">
@@ -8626,7 +9103,7 @@
       <c r="I141" s="2">
         <v>57.14</v>
       </c>
-      <c r="J141" s="167">
+      <c r="J141" s="168">
         <v>58.27</v>
       </c>
       <c r="K141" s="60"/>
@@ -8634,8 +9111,8 @@
       <c r="R141" s="11"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="168"/>
-      <c r="B142" s="168"/>
+      <c r="A142" s="169"/>
+      <c r="B142" s="169"/>
       <c r="C142" s="121">
         <v>38</v>
       </c>
@@ -8657,14 +9134,14 @@
       <c r="I142" s="2">
         <v>55.38</v>
       </c>
-      <c r="J142" s="168"/>
+      <c r="J142" s="169"/>
       <c r="K142" s="60"/>
       <c r="N142" s="11"/>
       <c r="R142" s="11"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="169"/>
-      <c r="B143" s="169"/>
+      <c r="A143" s="170"/>
+      <c r="B143" s="170"/>
       <c r="C143" s="121">
         <v>4</v>
       </c>
@@ -8686,16 +9163,16 @@
       <c r="I143" s="2">
         <v>62.3</v>
       </c>
-      <c r="J143" s="169"/>
+      <c r="J143" s="170"/>
       <c r="K143" s="60"/>
       <c r="N143" s="11"/>
       <c r="R143" s="11"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="167">
+      <c r="A144" s="168">
         <v>6</v>
       </c>
-      <c r="B144" s="167" t="s">
+      <c r="B144" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C144" s="121">
@@ -8719,7 +9196,7 @@
       <c r="I144" s="2">
         <v>48.53</v>
       </c>
-      <c r="J144" s="167">
+      <c r="J144" s="168">
         <v>51.5</v>
       </c>
       <c r="K144" s="60"/>
@@ -8727,8 +9204,8 @@
       <c r="R144" s="11"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="168"/>
-      <c r="B145" s="168"/>
+      <c r="A145" s="169"/>
+      <c r="B145" s="169"/>
       <c r="C145" s="121">
         <v>20</v>
       </c>
@@ -8750,14 +9227,14 @@
       <c r="I145" s="2">
         <v>53.03</v>
       </c>
-      <c r="J145" s="168"/>
+      <c r="J145" s="169"/>
       <c r="K145" s="60"/>
       <c r="N145" s="11"/>
       <c r="R145" s="11"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="169"/>
-      <c r="B146" s="169"/>
+      <c r="A146" s="170"/>
+      <c r="B146" s="170"/>
       <c r="C146" s="121">
         <v>19</v>
       </c>
@@ -8779,16 +9256,16 @@
       <c r="I146" s="2">
         <v>52.94</v>
       </c>
-      <c r="J146" s="169"/>
+      <c r="J146" s="170"/>
       <c r="K146" s="60"/>
       <c r="N146" s="11"/>
       <c r="R146" s="11"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="167">
+      <c r="A147" s="168">
         <v>6</v>
       </c>
-      <c r="B147" s="167" t="s">
+      <c r="B147" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C147" s="121">
@@ -8812,7 +9289,7 @@
       <c r="I147" s="2">
         <v>71.67</v>
       </c>
-      <c r="J147" s="167">
+      <c r="J147" s="168">
         <v>66.959999999999994</v>
       </c>
       <c r="K147" s="60"/>
@@ -8820,8 +9297,8 @@
       <c r="R147" s="11"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="168"/>
-      <c r="B148" s="168"/>
+      <c r="A148" s="169"/>
+      <c r="B148" s="169"/>
       <c r="C148" s="121">
         <v>21</v>
       </c>
@@ -8843,14 +9320,14 @@
       <c r="I148" s="2">
         <v>63.64</v>
       </c>
-      <c r="J148" s="168"/>
+      <c r="J148" s="169"/>
       <c r="K148" s="60"/>
       <c r="N148" s="11"/>
       <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="169"/>
-      <c r="B149" s="169"/>
+      <c r="A149" s="170"/>
+      <c r="B149" s="170"/>
       <c r="C149" s="121">
         <v>22</v>
       </c>
@@ -8872,16 +9349,16 @@
       <c r="I149" s="2">
         <v>65.569999999999993</v>
       </c>
-      <c r="J149" s="169"/>
+      <c r="J149" s="170"/>
       <c r="K149" s="60"/>
       <c r="N149" s="11"/>
       <c r="R149" s="11"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="167">
+      <c r="A150" s="168">
         <v>75</v>
       </c>
-      <c r="B150" s="167" t="s">
+      <c r="B150" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C150" s="121">
@@ -8905,7 +9382,7 @@
       <c r="I150" s="2">
         <v>131.11000000000001</v>
       </c>
-      <c r="J150" s="167">
+      <c r="J150" s="168">
         <v>127.47</v>
       </c>
       <c r="K150" s="60"/>
@@ -8913,8 +9390,8 @@
       <c r="R150" s="11"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="168"/>
-      <c r="B151" s="168"/>
+      <c r="A151" s="169"/>
+      <c r="B151" s="169"/>
       <c r="C151" s="121">
         <v>24</v>
       </c>
@@ -8936,14 +9413,14 @@
       <c r="I151" s="2">
         <v>129.55000000000001</v>
       </c>
-      <c r="J151" s="168"/>
+      <c r="J151" s="169"/>
       <c r="K151" s="60"/>
       <c r="N151" s="11"/>
       <c r="R151" s="11"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="169"/>
-      <c r="B152" s="169"/>
+      <c r="A152" s="170"/>
+      <c r="B152" s="170"/>
       <c r="C152" s="121">
         <v>25</v>
       </c>
@@ -8965,16 +9442,16 @@
       <c r="I152" s="2">
         <v>121.74</v>
       </c>
-      <c r="J152" s="169"/>
+      <c r="J152" s="170"/>
       <c r="K152" s="60"/>
       <c r="N152" s="11"/>
       <c r="R152" s="11"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="167">
+      <c r="A153" s="168">
         <v>75</v>
       </c>
-      <c r="B153" s="167" t="s">
+      <c r="B153" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C153" s="121">
@@ -8998,7 +9475,7 @@
       <c r="I153" s="2">
         <v>24.1</v>
       </c>
-      <c r="J153" s="167">
+      <c r="J153" s="168">
         <v>23.2</v>
       </c>
       <c r="K153" s="60"/>
@@ -9006,8 +9483,8 @@
       <c r="R153" s="11"/>
     </row>
     <row r="154" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="168"/>
-      <c r="B154" s="168"/>
+      <c r="A154" s="169"/>
+      <c r="B154" s="169"/>
       <c r="C154" s="121">
         <v>26</v>
       </c>
@@ -9029,14 +9506,14 @@
       <c r="I154" s="2">
         <v>22.62</v>
       </c>
-      <c r="J154" s="168"/>
+      <c r="J154" s="169"/>
       <c r="K154" s="60"/>
       <c r="N154" s="11"/>
       <c r="R154" s="11"/>
     </row>
     <row r="155" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="169"/>
-      <c r="B155" s="169"/>
+      <c r="A155" s="170"/>
+      <c r="B155" s="170"/>
       <c r="C155" s="121">
         <v>27</v>
       </c>
@@ -9058,16 +9535,16 @@
       <c r="I155" s="2">
         <v>22.89</v>
       </c>
-      <c r="J155" s="169"/>
+      <c r="J155" s="170"/>
       <c r="K155" s="60"/>
       <c r="N155" s="11"/>
       <c r="R155" s="11"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="167">
+      <c r="A156" s="168">
         <v>39</v>
       </c>
-      <c r="B156" s="167" t="s">
+      <c r="B156" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C156" s="121">
@@ -9091,7 +9568,7 @@
       <c r="I156" s="2">
         <v>172.97</v>
       </c>
-      <c r="J156" s="167">
+      <c r="J156" s="168">
         <v>176.92</v>
       </c>
       <c r="K156" s="60"/>
@@ -9099,8 +9576,8 @@
       <c r="R156" s="11"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="168"/>
-      <c r="B157" s="168"/>
+      <c r="A157" s="169"/>
+      <c r="B157" s="169"/>
       <c r="C157" s="121">
         <v>2</v>
       </c>
@@ -9122,14 +9599,14 @@
       <c r="I157" s="2">
         <v>180</v>
       </c>
-      <c r="J157" s="168"/>
+      <c r="J157" s="169"/>
       <c r="K157" s="60"/>
       <c r="N157" s="11"/>
       <c r="R157" s="11"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="169"/>
-      <c r="B158" s="169"/>
+      <c r="A158" s="170"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="121">
         <v>38</v>
       </c>
@@ -9151,16 +9628,16 @@
       <c r="I158" s="2">
         <v>177.78</v>
       </c>
-      <c r="J158" s="169"/>
+      <c r="J158" s="170"/>
       <c r="K158" s="60"/>
       <c r="N158" s="11"/>
       <c r="R158" s="11"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="167">
+      <c r="A159" s="168">
         <v>39</v>
       </c>
-      <c r="B159" s="167" t="s">
+      <c r="B159" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C159" s="121">
@@ -9184,7 +9661,7 @@
       <c r="I159" s="2">
         <v>170.27</v>
       </c>
-      <c r="J159" s="167">
+      <c r="J159" s="168">
         <v>175.48</v>
       </c>
       <c r="K159" s="60"/>
@@ -9192,8 +9669,8 @@
       <c r="R159" s="11"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="168"/>
-      <c r="B160" s="168"/>
+      <c r="A160" s="169"/>
+      <c r="B160" s="169"/>
       <c r="C160" s="121">
         <v>8</v>
       </c>
@@ -9215,14 +9692,14 @@
       <c r="I160" s="2">
         <v>178.38</v>
       </c>
-      <c r="J160" s="168"/>
+      <c r="J160" s="169"/>
       <c r="K160" s="60"/>
       <c r="N160" s="11"/>
       <c r="R160" s="11"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="169"/>
-      <c r="B161" s="169"/>
+      <c r="A161" s="170"/>
+      <c r="B161" s="170"/>
       <c r="C161" s="121">
         <v>37</v>
       </c>
@@ -9244,16 +9721,16 @@
       <c r="I161" s="2">
         <v>177.78</v>
       </c>
-      <c r="J161" s="169"/>
+      <c r="J161" s="170"/>
       <c r="K161" s="60"/>
       <c r="N161" s="11"/>
       <c r="R161" s="11"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="167">
+      <c r="A162" s="168">
         <v>27</v>
       </c>
-      <c r="B162" s="167" t="s">
+      <c r="B162" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="121">
@@ -9277,7 +9754,7 @@
       <c r="I162" s="2">
         <v>52.24</v>
       </c>
-      <c r="J162" s="167">
+      <c r="J162" s="168">
         <v>50.71</v>
       </c>
       <c r="K162" s="60"/>
@@ -9285,8 +9762,8 @@
       <c r="R162" s="11"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="168"/>
-      <c r="B163" s="168"/>
+      <c r="A163" s="169"/>
+      <c r="B163" s="169"/>
       <c r="C163" s="121">
         <v>39</v>
       </c>
@@ -9308,14 +9785,14 @@
       <c r="I163" s="2">
         <v>48.53</v>
       </c>
-      <c r="J163" s="168"/>
+      <c r="J163" s="169"/>
       <c r="K163" s="60"/>
       <c r="N163" s="11"/>
       <c r="R163" s="11"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="169"/>
-      <c r="B164" s="169"/>
+      <c r="A164" s="170"/>
+      <c r="B164" s="170"/>
       <c r="C164" s="121">
         <v>35</v>
       </c>
@@ -9337,16 +9814,16 @@
       <c r="I164" s="2">
         <v>51.35</v>
       </c>
-      <c r="J164" s="169"/>
+      <c r="J164" s="170"/>
       <c r="K164" s="60"/>
       <c r="N164" s="11"/>
       <c r="R164" s="11"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="167">
+      <c r="A165" s="168">
         <v>27</v>
       </c>
-      <c r="B165" s="167" t="s">
+      <c r="B165" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C165" s="121">
@@ -9370,7 +9847,7 @@
       <c r="I165" s="2">
         <v>314.81</v>
       </c>
-      <c r="J165" s="167">
+      <c r="J165" s="168">
         <v>280.69</v>
       </c>
       <c r="K165" s="60"/>
@@ -9378,8 +9855,8 @@
       <c r="R165" s="11"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="168"/>
-      <c r="B166" s="168"/>
+      <c r="A166" s="169"/>
+      <c r="B166" s="169"/>
       <c r="C166" s="121">
         <v>40</v>
       </c>
@@ -9401,14 +9878,14 @@
       <c r="I166" s="2">
         <v>69.349999999999994</v>
       </c>
-      <c r="J166" s="168"/>
+      <c r="J166" s="169"/>
       <c r="K166" s="60"/>
       <c r="N166" s="11"/>
       <c r="R166" s="11"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="169"/>
-      <c r="B167" s="169"/>
+      <c r="A167" s="170"/>
+      <c r="B167" s="170"/>
       <c r="C167" s="121">
         <v>24</v>
       </c>
@@ -9430,16 +9907,16 @@
       <c r="I167" s="2">
         <v>457.89</v>
       </c>
-      <c r="J167" s="169"/>
+      <c r="J167" s="170"/>
       <c r="K167" s="60"/>
       <c r="N167" s="11"/>
       <c r="R167" s="11"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="167">
+      <c r="A168" s="168">
         <v>44</v>
       </c>
-      <c r="B168" s="167" t="s">
+      <c r="B168" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C168" s="121">
@@ -9463,7 +9940,7 @@
       <c r="I168" s="2">
         <v>303.85000000000002</v>
       </c>
-      <c r="J168" s="167">
+      <c r="J168" s="168">
         <v>312.88</v>
       </c>
       <c r="K168" s="60"/>
@@ -9471,8 +9948,8 @@
       <c r="R168" s="11"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="168"/>
-      <c r="B169" s="168"/>
+      <c r="A169" s="169"/>
+      <c r="B169" s="169"/>
       <c r="C169" s="121">
         <v>41</v>
       </c>
@@ -9494,14 +9971,14 @@
       <c r="I169" s="2">
         <v>300</v>
       </c>
-      <c r="J169" s="168"/>
+      <c r="J169" s="169"/>
       <c r="K169" s="60"/>
       <c r="N169" s="11"/>
       <c r="R169" s="11"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="169"/>
-      <c r="B170" s="169"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="170"/>
       <c r="C170" s="121">
         <v>33</v>
       </c>
@@ -9523,16 +10000,16 @@
       <c r="I170" s="2">
         <v>334.78</v>
       </c>
-      <c r="J170" s="169"/>
+      <c r="J170" s="170"/>
       <c r="K170" s="60"/>
       <c r="N170" s="11"/>
       <c r="R170" s="11"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="167">
+      <c r="A171" s="168">
         <v>44</v>
       </c>
-      <c r="B171" s="167" t="s">
+      <c r="B171" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C171" s="121">
@@ -9556,7 +10033,7 @@
       <c r="I171" s="2">
         <v>175.61</v>
       </c>
-      <c r="J171" s="167">
+      <c r="J171" s="168">
         <v>176.55</v>
       </c>
       <c r="K171" s="60"/>
@@ -9564,8 +10041,8 @@
       <c r="R171" s="11"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="168"/>
-      <c r="B172" s="168"/>
+      <c r="A172" s="169"/>
+      <c r="B172" s="169"/>
       <c r="C172" s="121">
         <v>18</v>
       </c>
@@ -9587,14 +10064,14 @@
       <c r="I172" s="2">
         <v>191.89</v>
       </c>
-      <c r="J172" s="168"/>
+      <c r="J172" s="169"/>
       <c r="K172" s="60"/>
       <c r="N172" s="11"/>
       <c r="R172" s="11"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="169"/>
-      <c r="B173" s="169"/>
+      <c r="A173" s="170"/>
+      <c r="B173" s="170"/>
       <c r="C173" s="121">
         <v>8</v>
       </c>
@@ -9616,16 +10093,16 @@
       <c r="I173" s="2">
         <v>162.16</v>
       </c>
-      <c r="J173" s="169"/>
+      <c r="J173" s="170"/>
       <c r="K173" s="60"/>
       <c r="N173" s="11"/>
       <c r="R173" s="11"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="167">
+      <c r="A174" s="168">
         <v>56</v>
       </c>
-      <c r="B174" s="167" t="s">
+      <c r="B174" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C174" s="121">
@@ -9649,7 +10126,7 @@
       <c r="I174" s="2">
         <v>361.9</v>
       </c>
-      <c r="J174" s="167">
+      <c r="J174" s="168">
         <v>372.15</v>
       </c>
       <c r="K174" s="60"/>
@@ -9657,8 +10134,8 @@
       <c r="R174" s="11"/>
     </row>
     <row r="175" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="168"/>
-      <c r="B175" s="168"/>
+      <c r="A175" s="169"/>
+      <c r="B175" s="169"/>
       <c r="C175" s="121">
         <v>13</v>
       </c>
@@ -9680,14 +10157,14 @@
       <c r="I175" s="2">
         <v>372.73</v>
       </c>
-      <c r="J175" s="168"/>
+      <c r="J175" s="169"/>
       <c r="K175" s="60"/>
       <c r="N175" s="11"/>
       <c r="R175" s="11"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="169"/>
-      <c r="B176" s="169"/>
+      <c r="A176" s="170"/>
+      <c r="B176" s="170"/>
       <c r="C176" s="121">
         <v>12</v>
       </c>
@@ -9709,16 +10186,16 @@
       <c r="I176" s="2">
         <v>381.82</v>
       </c>
-      <c r="J176" s="169"/>
+      <c r="J176" s="170"/>
       <c r="K176" s="60"/>
       <c r="N176" s="11"/>
       <c r="R176" s="11"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="167">
+      <c r="A177" s="168">
         <v>56</v>
       </c>
-      <c r="B177" s="167" t="s">
+      <c r="B177" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C177" s="121">
@@ -9742,7 +10219,7 @@
       <c r="I177" s="2">
         <v>178.95</v>
       </c>
-      <c r="J177" s="167">
+      <c r="J177" s="168">
         <v>180.22</v>
       </c>
       <c r="K177" s="60"/>
@@ -9750,8 +10227,8 @@
       <c r="R177" s="11"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="168"/>
-      <c r="B178" s="168"/>
+      <c r="A178" s="169"/>
+      <c r="B178" s="169"/>
       <c r="C178" s="121">
         <v>15</v>
       </c>
@@ -9773,14 +10250,14 @@
       <c r="I178" s="2">
         <v>178.38</v>
       </c>
-      <c r="J178" s="168"/>
+      <c r="J178" s="169"/>
       <c r="K178" s="60"/>
       <c r="N178" s="11"/>
       <c r="R178" s="11"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="169"/>
-      <c r="B179" s="169"/>
+      <c r="A179" s="170"/>
+      <c r="B179" s="170"/>
       <c r="C179" s="121">
         <v>16</v>
       </c>
@@ -9802,16 +10279,16 @@
       <c r="I179" s="2">
         <v>183.33</v>
       </c>
-      <c r="J179" s="169"/>
+      <c r="J179" s="170"/>
       <c r="K179" s="60"/>
       <c r="N179" s="11"/>
       <c r="R179" s="11"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="167">
+      <c r="A180" s="168">
         <v>55</v>
       </c>
-      <c r="B180" s="167" t="s">
+      <c r="B180" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C180" s="121">
@@ -9835,7 +10312,7 @@
       <c r="I180" s="2">
         <v>311.54000000000002</v>
       </c>
-      <c r="J180" s="167">
+      <c r="J180" s="168">
         <v>243.4</v>
       </c>
       <c r="K180" s="60"/>
@@ -9843,8 +10320,8 @@
       <c r="R180" s="11"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="168"/>
-      <c r="B181" s="168"/>
+      <c r="A181" s="169"/>
+      <c r="B181" s="169"/>
       <c r="C181" s="121">
         <v>24</v>
       </c>
@@ -9866,14 +10343,14 @@
       <c r="I181" s="2">
         <v>66.67</v>
       </c>
-      <c r="J181" s="168"/>
+      <c r="J181" s="169"/>
       <c r="K181" s="60"/>
       <c r="N181" s="11"/>
       <c r="R181" s="11"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="169"/>
-      <c r="B182" s="169"/>
+      <c r="A182" s="170"/>
+      <c r="B182" s="170"/>
       <c r="C182" s="121">
         <v>26</v>
       </c>
@@ -9895,16 +10372,16 @@
       <c r="I182" s="2">
         <v>352</v>
       </c>
-      <c r="J182" s="169"/>
+      <c r="J182" s="170"/>
       <c r="K182" s="60"/>
       <c r="N182" s="11"/>
       <c r="R182" s="11"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="167">
+      <c r="A183" s="168">
         <v>55</v>
       </c>
-      <c r="B183" s="167" t="s">
+      <c r="B183" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C183" s="121">
@@ -9928,7 +10405,7 @@
       <c r="I183" s="2">
         <v>248.39</v>
       </c>
-      <c r="J183" s="167">
+      <c r="J183" s="168">
         <v>177.42</v>
       </c>
       <c r="K183" s="60"/>
@@ -9936,8 +10413,8 @@
       <c r="R183" s="11"/>
     </row>
     <row r="184" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="168"/>
-      <c r="B184" s="168"/>
+      <c r="A184" s="169"/>
+      <c r="B184" s="169"/>
       <c r="C184" s="121">
         <v>22</v>
       </c>
@@ -9959,14 +10436,14 @@
       <c r="I184" s="2">
         <v>46.38</v>
       </c>
-      <c r="J184" s="168"/>
+      <c r="J184" s="169"/>
       <c r="K184" s="60"/>
       <c r="N184" s="11"/>
       <c r="R184" s="11"/>
     </row>
     <row r="185" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="169"/>
-      <c r="B185" s="169"/>
+      <c r="A185" s="170"/>
+      <c r="B185" s="170"/>
       <c r="C185" s="121">
         <v>25</v>
       </c>
@@ -9988,16 +10465,16 @@
       <c r="I185" s="2">
         <v>237.5</v>
       </c>
-      <c r="J185" s="169"/>
+      <c r="J185" s="170"/>
       <c r="K185" s="60"/>
       <c r="N185" s="11"/>
       <c r="R185" s="11"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="167">
+      <c r="A186" s="168">
         <v>62</v>
       </c>
-      <c r="B186" s="167" t="s">
+      <c r="B186" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C186" s="121">
@@ -10021,7 +10498,7 @@
       <c r="I186" s="124">
         <v>350</v>
       </c>
-      <c r="J186" s="167">
+      <c r="J186" s="168">
         <v>346.43</v>
       </c>
       <c r="K186" s="60"/>
@@ -10029,8 +10506,8 @@
       <c r="R186" s="11"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="168"/>
-      <c r="B187" s="168"/>
+      <c r="A187" s="169"/>
+      <c r="B187" s="169"/>
       <c r="C187" s="121">
         <v>15</v>
       </c>
@@ -10052,14 +10529,14 @@
       <c r="I187" s="124">
         <v>380.95</v>
       </c>
-      <c r="J187" s="168"/>
+      <c r="J187" s="169"/>
       <c r="K187" s="60"/>
       <c r="N187" s="11"/>
       <c r="R187" s="11"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="169"/>
-      <c r="B188" s="169"/>
+      <c r="A188" s="170"/>
+      <c r="B188" s="170"/>
       <c r="C188" s="121">
         <v>13</v>
       </c>
@@ -10081,16 +10558,16 @@
       <c r="I188" s="124">
         <v>308.33</v>
       </c>
-      <c r="J188" s="169"/>
+      <c r="J188" s="170"/>
       <c r="K188" s="60"/>
       <c r="N188" s="11"/>
       <c r="R188" s="11"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="167">
+      <c r="A189" s="168">
         <v>62</v>
       </c>
-      <c r="B189" s="167" t="s">
+      <c r="B189" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C189" s="121">
@@ -10108,10 +10585,10 @@
       <c r="G189" s="147"/>
       <c r="H189" s="147"/>
       <c r="I189" s="148"/>
-      <c r="J189" s="167">
+      <c r="J189" s="168">
         <v>345.45</v>
       </c>
-      <c r="K189" s="170" t="s">
+      <c r="K189" s="175" t="s">
         <v>106</v>
       </c>
       <c r="L189" s="171"/>
@@ -10119,8 +10596,8 @@
       <c r="R189" s="11"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="168"/>
-      <c r="B190" s="168"/>
+      <c r="A190" s="169"/>
+      <c r="B190" s="169"/>
       <c r="C190" s="121">
         <v>12</v>
       </c>
@@ -10136,14 +10613,14 @@
       <c r="G190" s="147"/>
       <c r="H190" s="147"/>
       <c r="I190" s="148"/>
-      <c r="J190" s="168"/>
+      <c r="J190" s="169"/>
       <c r="K190" s="60"/>
       <c r="N190" s="11"/>
       <c r="R190" s="11"/>
     </row>
     <row r="191" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="169"/>
-      <c r="B191" s="169"/>
+      <c r="A191" s="170"/>
+      <c r="B191" s="170"/>
       <c r="C191" s="121">
         <v>11</v>
       </c>
@@ -10165,16 +10642,16 @@
       <c r="I191" s="124">
         <v>345.45</v>
       </c>
-      <c r="J191" s="169"/>
+      <c r="J191" s="170"/>
       <c r="K191" s="60"/>
       <c r="N191" s="11"/>
       <c r="R191" s="11"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="167">
+      <c r="A192" s="168">
         <v>72</v>
       </c>
-      <c r="B192" s="167" t="s">
+      <c r="B192" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C192" s="121">
@@ -10198,7 +10675,7 @@
       <c r="I192" s="124">
         <v>151.16</v>
       </c>
-      <c r="J192" s="167">
+      <c r="J192" s="168">
         <v>165.89</v>
       </c>
       <c r="K192" s="60"/>
@@ -10206,8 +10683,8 @@
       <c r="R192" s="11"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="168"/>
-      <c r="B193" s="168"/>
+      <c r="A193" s="169"/>
+      <c r="B193" s="169"/>
       <c r="C193" s="121">
         <v>27</v>
       </c>
@@ -10229,14 +10706,14 @@
       <c r="I193" s="124">
         <v>203.03</v>
       </c>
-      <c r="J193" s="168"/>
+      <c r="J193" s="169"/>
       <c r="K193" s="60"/>
       <c r="N193" s="11"/>
       <c r="R193" s="11"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="169"/>
-      <c r="B194" s="169"/>
+      <c r="A194" s="170"/>
+      <c r="B194" s="170"/>
       <c r="C194" s="121">
         <v>31</v>
       </c>
@@ -10258,16 +10735,16 @@
       <c r="I194" s="124">
         <v>143.47999999999999</v>
       </c>
-      <c r="J194" s="169"/>
+      <c r="J194" s="170"/>
       <c r="K194" s="60"/>
       <c r="N194" s="11"/>
       <c r="R194" s="11"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="167">
+      <c r="A195" s="168">
         <v>72</v>
       </c>
-      <c r="B195" s="167" t="s">
+      <c r="B195" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C195" s="121">
@@ -10291,7 +10768,7 @@
       <c r="I195" s="124">
         <v>22.62</v>
       </c>
-      <c r="J195" s="167">
+      <c r="J195" s="168">
         <v>23.99</v>
       </c>
       <c r="K195" s="60"/>
@@ -10299,8 +10776,8 @@
       <c r="R195" s="11"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="168"/>
-      <c r="B196" s="168"/>
+      <c r="A196" s="169"/>
+      <c r="B196" s="169"/>
       <c r="C196" s="121">
         <v>48</v>
       </c>
@@ -10322,14 +10799,14 @@
       <c r="I196" s="124">
         <v>25.29</v>
       </c>
-      <c r="J196" s="168"/>
+      <c r="J196" s="169"/>
       <c r="K196" s="60"/>
       <c r="N196" s="11"/>
       <c r="R196" s="11"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="169"/>
-      <c r="B197" s="169"/>
+      <c r="A197" s="170"/>
+      <c r="B197" s="170"/>
       <c r="C197" s="121" t="s">
         <v>107</v>
       </c>
@@ -10351,16 +10828,16 @@
       <c r="I197" s="124">
         <v>24.05</v>
       </c>
-      <c r="J197" s="169"/>
+      <c r="J197" s="170"/>
       <c r="K197" s="60"/>
       <c r="N197" s="11"/>
       <c r="R197" s="11"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="167">
+      <c r="A198" s="168">
         <v>60</v>
       </c>
-      <c r="B198" s="167" t="s">
+      <c r="B198" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="121">
@@ -10384,7 +10861,7 @@
       <c r="I198" s="2">
         <v>316</v>
       </c>
-      <c r="J198" s="167">
+      <c r="J198" s="168">
         <v>329.97</v>
       </c>
       <c r="K198" s="60"/>
@@ -10392,8 +10869,8 @@
       <c r="R198" s="11"/>
     </row>
     <row r="199" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="168"/>
-      <c r="B199" s="168"/>
+      <c r="A199" s="169"/>
+      <c r="B199" s="169"/>
       <c r="C199" s="121">
         <v>16</v>
       </c>
@@ -10415,14 +10892,14 @@
       <c r="I199" s="2">
         <v>343.48</v>
       </c>
-      <c r="J199" s="168"/>
+      <c r="J199" s="169"/>
       <c r="K199" s="60"/>
       <c r="N199" s="11"/>
       <c r="R199" s="11"/>
     </row>
     <row r="200" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="169"/>
-      <c r="B200" s="169"/>
+      <c r="A200" s="170"/>
+      <c r="B200" s="170"/>
       <c r="C200" s="121">
         <v>11</v>
       </c>
@@ -10444,16 +10921,16 @@
       <c r="I200" s="2">
         <v>330.43</v>
       </c>
-      <c r="J200" s="169"/>
+      <c r="J200" s="170"/>
       <c r="K200" s="60"/>
       <c r="N200" s="11"/>
       <c r="R200" s="11"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="167">
+      <c r="A201" s="168">
         <v>60</v>
       </c>
-      <c r="B201" s="167" t="s">
+      <c r="B201" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C201" s="121">
@@ -10477,7 +10954,7 @@
       <c r="I201" s="2">
         <v>358.33</v>
       </c>
-      <c r="J201" s="167">
+      <c r="J201" s="168">
         <v>321.56</v>
       </c>
       <c r="K201" s="60"/>
@@ -10485,8 +10962,8 @@
       <c r="R201" s="11"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="168"/>
-      <c r="B202" s="168"/>
+      <c r="A202" s="169"/>
+      <c r="B202" s="169"/>
       <c r="C202" s="121">
         <v>15</v>
       </c>
@@ -10508,14 +10985,14 @@
       <c r="I202" s="2">
         <v>284.62</v>
       </c>
-      <c r="J202" s="168"/>
+      <c r="J202" s="169"/>
       <c r="K202" s="60"/>
       <c r="N202" s="11"/>
       <c r="R202" s="11"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="169"/>
-      <c r="B203" s="169"/>
+      <c r="A203" s="170"/>
+      <c r="B203" s="170"/>
       <c r="C203" s="121">
         <v>14</v>
       </c>
@@ -10537,16 +11014,16 @@
       <c r="I203" s="2">
         <v>321.74</v>
       </c>
-      <c r="J203" s="169"/>
+      <c r="J203" s="170"/>
       <c r="K203" s="60"/>
       <c r="N203" s="11"/>
       <c r="R203" s="11"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="167">
+      <c r="A204" s="168">
         <v>26</v>
       </c>
-      <c r="B204" s="167" t="s">
+      <c r="B204" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="121">
@@ -10570,7 +11047,7 @@
       <c r="I204" s="2">
         <v>47.89</v>
       </c>
-      <c r="J204" s="167">
+      <c r="J204" s="168">
         <v>49.56</v>
       </c>
       <c r="K204" s="60"/>
@@ -10578,8 +11055,8 @@
       <c r="R204" s="11"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="168"/>
-      <c r="B205" s="168"/>
+      <c r="A205" s="169"/>
+      <c r="B205" s="169"/>
       <c r="C205" s="121">
         <v>21</v>
       </c>
@@ -10601,14 +11078,14 @@
       <c r="I205" s="2">
         <v>51.52</v>
       </c>
-      <c r="J205" s="168"/>
+      <c r="J205" s="169"/>
       <c r="K205" s="60"/>
       <c r="N205" s="11"/>
       <c r="R205" s="11"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="169"/>
-      <c r="B206" s="169"/>
+      <c r="A206" s="170"/>
+      <c r="B206" s="170"/>
       <c r="C206" s="121">
         <v>17</v>
       </c>
@@ -10630,16 +11107,16 @@
       <c r="I206" s="2">
         <v>49.28</v>
       </c>
-      <c r="J206" s="169"/>
+      <c r="J206" s="170"/>
       <c r="K206" s="60"/>
       <c r="N206" s="11"/>
       <c r="R206" s="11"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="167">
+      <c r="A207" s="168">
         <v>26</v>
       </c>
-      <c r="B207" s="167" t="s">
+      <c r="B207" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C207" s="121">
@@ -10663,7 +11140,7 @@
       <c r="I207" s="2">
         <v>53.97</v>
       </c>
-      <c r="J207" s="167">
+      <c r="J207" s="168">
         <v>59.77</v>
       </c>
       <c r="K207" s="60"/>
@@ -10671,8 +11148,8 @@
       <c r="R207" s="11"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="168"/>
-      <c r="B208" s="168"/>
+      <c r="A208" s="169"/>
+      <c r="B208" s="169"/>
       <c r="C208" s="121">
         <v>20</v>
       </c>
@@ -10694,14 +11171,14 @@
       <c r="I208" s="2">
         <v>61.19</v>
       </c>
-      <c r="J208" s="168"/>
+      <c r="J208" s="169"/>
       <c r="K208" s="60"/>
       <c r="N208" s="11"/>
       <c r="R208" s="11"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="169"/>
-      <c r="B209" s="169"/>
+      <c r="A209" s="170"/>
+      <c r="B209" s="170"/>
       <c r="C209" s="121">
         <v>4</v>
       </c>
@@ -10723,16 +11200,16 @@
       <c r="I209" s="2">
         <v>64.150000000000006</v>
       </c>
-      <c r="J209" s="169"/>
+      <c r="J209" s="170"/>
       <c r="K209" s="60"/>
       <c r="N209" s="11"/>
       <c r="R209" s="11"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="167">
+      <c r="A210" s="168">
         <v>13</v>
       </c>
-      <c r="B210" s="167" t="s">
+      <c r="B210" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="121">
@@ -10756,7 +11233,7 @@
       <c r="I210" s="2">
         <v>79.66</v>
       </c>
-      <c r="J210" s="167">
+      <c r="J210" s="168">
         <v>81.55</v>
       </c>
       <c r="K210" s="60"/>
@@ -10764,8 +11241,8 @@
       <c r="R210" s="11"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="168"/>
-      <c r="B211" s="168"/>
+      <c r="A211" s="169"/>
+      <c r="B211" s="169"/>
       <c r="C211" s="121">
         <v>37</v>
       </c>
@@ -10787,14 +11264,14 @@
       <c r="I211" s="2">
         <v>80</v>
       </c>
-      <c r="J211" s="168"/>
+      <c r="J211" s="169"/>
       <c r="K211" s="60"/>
       <c r="N211" s="11"/>
       <c r="R211" s="11"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="169"/>
-      <c r="B212" s="169"/>
+      <c r="A212" s="170"/>
+      <c r="B212" s="170"/>
       <c r="C212" s="121">
         <v>38</v>
       </c>
@@ -10816,16 +11293,16 @@
       <c r="I212" s="2">
         <v>85</v>
       </c>
-      <c r="J212" s="169"/>
+      <c r="J212" s="170"/>
       <c r="K212" s="60"/>
       <c r="N212" s="11"/>
       <c r="R212" s="11"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="167">
+      <c r="A213" s="168">
         <v>13</v>
       </c>
-      <c r="B213" s="167" t="s">
+      <c r="B213" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C213" s="121">
@@ -10849,7 +11326,7 @@
       <c r="I213" s="2">
         <v>57.14</v>
       </c>
-      <c r="J213" s="167">
+      <c r="J213" s="168">
         <v>57.35</v>
       </c>
       <c r="K213" s="60"/>
@@ -10857,8 +11334,8 @@
       <c r="R213" s="11"/>
     </row>
     <row r="214" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="168"/>
-      <c r="B214" s="168"/>
+      <c r="A214" s="169"/>
+      <c r="B214" s="169"/>
       <c r="C214" s="121" t="s">
         <v>108</v>
       </c>
@@ -10880,14 +11357,14 @@
       <c r="I214" s="2">
         <v>61.67</v>
       </c>
-      <c r="J214" s="168"/>
+      <c r="J214" s="169"/>
       <c r="K214" s="60"/>
       <c r="N214" s="11"/>
       <c r="R214" s="11"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="169"/>
-      <c r="B215" s="169"/>
+      <c r="A215" s="170"/>
+      <c r="B215" s="170"/>
       <c r="C215" s="121">
         <v>7</v>
       </c>
@@ -10909,16 +11386,16 @@
       <c r="I215" s="2">
         <v>53.25</v>
       </c>
-      <c r="J215" s="169"/>
+      <c r="J215" s="170"/>
       <c r="K215" s="60"/>
       <c r="N215" s="11"/>
       <c r="R215" s="11"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="167">
+      <c r="A216" s="168">
         <v>28</v>
       </c>
-      <c r="B216" s="167" t="s">
+      <c r="B216" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C216" s="121">
@@ -10942,7 +11419,7 @@
       <c r="I216" s="124">
         <v>49.33</v>
       </c>
-      <c r="J216" s="167">
+      <c r="J216" s="168">
         <v>49.27</v>
       </c>
       <c r="K216" s="60"/>
@@ -10950,8 +11427,8 @@
       <c r="R216" s="11"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="168"/>
-      <c r="B217" s="168"/>
+      <c r="A217" s="169"/>
+      <c r="B217" s="169"/>
       <c r="C217" s="121">
         <v>16</v>
       </c>
@@ -10973,14 +11450,14 @@
       <c r="I217" s="124">
         <v>48.48</v>
       </c>
-      <c r="J217" s="168"/>
+      <c r="J217" s="169"/>
       <c r="K217" s="60"/>
       <c r="N217" s="11"/>
       <c r="R217" s="11"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="169"/>
-      <c r="B218" s="169"/>
+      <c r="A218" s="170"/>
+      <c r="B218" s="170"/>
       <c r="C218" s="121">
         <v>14</v>
       </c>
@@ -11002,16 +11479,16 @@
       <c r="I218" s="124">
         <v>50</v>
       </c>
-      <c r="J218" s="169"/>
+      <c r="J218" s="170"/>
       <c r="K218" s="60"/>
       <c r="N218" s="11"/>
       <c r="R218" s="11"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="167">
+      <c r="A219" s="168">
         <v>28</v>
       </c>
-      <c r="B219" s="167" t="s">
+      <c r="B219" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C219" s="121">
@@ -11035,7 +11512,7 @@
       <c r="I219" s="124">
         <v>47.69</v>
       </c>
-      <c r="J219" s="167">
+      <c r="J219" s="168">
         <v>51.28</v>
       </c>
       <c r="K219" s="60"/>
@@ -11043,8 +11520,8 @@
       <c r="R219" s="11"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="168"/>
-      <c r="B220" s="168"/>
+      <c r="A220" s="169"/>
+      <c r="B220" s="169"/>
       <c r="C220" s="121">
         <v>45</v>
       </c>
@@ -11066,14 +11543,14 @@
       <c r="I220" s="124">
         <v>57.63</v>
       </c>
-      <c r="J220" s="168"/>
+      <c r="J220" s="169"/>
       <c r="K220" s="60"/>
       <c r="N220" s="11"/>
       <c r="R220" s="11"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="169"/>
-      <c r="B221" s="169"/>
+      <c r="A221" s="170"/>
+      <c r="B221" s="170"/>
       <c r="C221" s="121">
         <v>43</v>
       </c>
@@ -11095,16 +11572,16 @@
       <c r="I221" s="124">
         <v>48.53</v>
       </c>
-      <c r="J221" s="169"/>
+      <c r="J221" s="170"/>
       <c r="K221" s="60"/>
       <c r="N221" s="11"/>
       <c r="R221" s="11"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="167">
+      <c r="A222" s="168">
         <v>1</v>
       </c>
-      <c r="B222" s="167" t="s">
+      <c r="B222" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="121"/>
@@ -11114,7 +11591,7 @@
       <c r="G222" s="122"/>
       <c r="H222" s="122"/>
       <c r="I222" s="124"/>
-      <c r="J222" s="172">
+      <c r="J222" s="174">
         <f>AVERAGE(I222:I224)</f>
         <v>71.186440677966075</v>
       </c>
@@ -11122,8 +11599,8 @@
       <c r="R222" s="11"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="168"/>
-      <c r="B223" s="168"/>
+      <c r="A223" s="169"/>
+      <c r="B223" s="169"/>
       <c r="C223" s="121"/>
       <c r="D223" s="122"/>
       <c r="E223" s="122"/>
@@ -11136,8 +11613,8 @@
       <c r="R223" s="11"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="169"/>
-      <c r="B224" s="169"/>
+      <c r="A224" s="170"/>
+      <c r="B224" s="170"/>
       <c r="C224" s="121" t="s">
         <v>109</v>
       </c>
@@ -11167,10 +11644,10 @@
       <c r="R224" s="11"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="167">
+      <c r="A225" s="168">
         <v>1</v>
       </c>
-      <c r="B225" s="167" t="s">
+      <c r="B225" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C225" s="121"/>
@@ -11180,7 +11657,7 @@
       <c r="G225" s="149"/>
       <c r="H225" s="122"/>
       <c r="I225" s="124"/>
-      <c r="J225" s="172">
+      <c r="J225" s="174">
         <f>AVERAGE(I225:I227)</f>
         <v>56.164383561643859</v>
       </c>
@@ -11188,8 +11665,8 @@
       <c r="R225" s="11"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="168"/>
-      <c r="B226" s="168"/>
+      <c r="A226" s="169"/>
+      <c r="B226" s="169"/>
       <c r="C226" s="121"/>
       <c r="D226" s="122"/>
       <c r="E226" s="122"/>
@@ -11202,8 +11679,8 @@
       <c r="R226" s="11"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="169"/>
-      <c r="B227" s="169"/>
+      <c r="A227" s="170"/>
+      <c r="B227" s="170"/>
       <c r="C227" s="121" t="s">
         <v>110</v>
       </c>
@@ -11233,10 +11710,10 @@
       <c r="R227" s="11"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="167">
+      <c r="A228" s="168">
         <v>18</v>
       </c>
-      <c r="B228" s="167" t="s">
+      <c r="B228" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C228" s="121"/>
@@ -11246,7 +11723,7 @@
       <c r="G228" s="149"/>
       <c r="H228" s="122"/>
       <c r="I228" s="124"/>
-      <c r="J228" s="172">
+      <c r="J228" s="174">
         <f>AVERAGE(I228:I230)</f>
         <v>120.4081632653061</v>
       </c>
@@ -11254,8 +11731,8 @@
       <c r="R228" s="11"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="168"/>
-      <c r="B229" s="168"/>
+      <c r="A229" s="169"/>
+      <c r="B229" s="169"/>
       <c r="C229" s="121"/>
       <c r="D229" s="122"/>
       <c r="E229" s="122"/>
@@ -11268,8 +11745,8 @@
       <c r="R229" s="11"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="169"/>
-      <c r="B230" s="169"/>
+      <c r="A230" s="170"/>
+      <c r="B230" s="170"/>
       <c r="C230" s="121" t="s">
         <v>111</v>
       </c>
@@ -11299,10 +11776,10 @@
       <c r="R230" s="11"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="167">
+      <c r="A231" s="168">
         <v>18</v>
       </c>
-      <c r="B231" s="167" t="s">
+      <c r="B231" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C231" s="121"/>
@@ -11312,7 +11789,7 @@
       <c r="G231" s="149"/>
       <c r="H231" s="122"/>
       <c r="I231" s="124"/>
-      <c r="J231" s="172">
+      <c r="J231" s="174">
         <f>AVERAGE(I231:I233)</f>
         <v>41.250000000000007</v>
       </c>
@@ -11320,8 +11797,8 @@
       <c r="R231" s="11"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="168"/>
-      <c r="B232" s="168"/>
+      <c r="A232" s="169"/>
+      <c r="B232" s="169"/>
       <c r="C232" s="121"/>
       <c r="D232" s="122"/>
       <c r="E232" s="122"/>
@@ -11334,8 +11811,8 @@
       <c r="R232" s="11"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="169"/>
-      <c r="B233" s="169"/>
+      <c r="A233" s="170"/>
+      <c r="B233" s="170"/>
       <c r="C233" s="121" t="s">
         <v>112</v>
       </c>
@@ -11365,10 +11842,10 @@
       <c r="R233" s="11"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="167">
+      <c r="A234" s="168">
         <v>71</v>
       </c>
-      <c r="B234" s="167" t="s">
+      <c r="B234" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C234" s="121"/>
@@ -11378,7 +11855,7 @@
       <c r="G234" s="149"/>
       <c r="H234" s="122"/>
       <c r="I234" s="124"/>
-      <c r="J234" s="172">
+      <c r="J234" s="174">
         <f>AVERAGE(I234:I236)</f>
         <v>296.15384615384608</v>
       </c>
@@ -11386,8 +11863,8 @@
       <c r="R234" s="11"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="168"/>
-      <c r="B235" s="168"/>
+      <c r="A235" s="169"/>
+      <c r="B235" s="169"/>
       <c r="C235" s="121"/>
       <c r="D235" s="122"/>
       <c r="E235" s="122"/>
@@ -11400,8 +11877,8 @@
       <c r="R235" s="11"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="169"/>
-      <c r="B236" s="169"/>
+      <c r="A236" s="170"/>
+      <c r="B236" s="170"/>
       <c r="C236" s="121" t="s">
         <v>113</v>
       </c>
@@ -11431,10 +11908,10 @@
       <c r="R236" s="11"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="167">
+      <c r="A237" s="168">
         <v>71</v>
       </c>
-      <c r="B237" s="167" t="s">
+      <c r="B237" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C237" s="121"/>
@@ -11444,7 +11921,7 @@
       <c r="G237" s="149"/>
       <c r="H237" s="122"/>
       <c r="I237" s="124"/>
-      <c r="J237" s="172">
+      <c r="J237" s="174">
         <f>AVERAGE(I237:I239)</f>
         <v>26.666666666666693</v>
       </c>
@@ -11452,8 +11929,8 @@
       <c r="R237" s="11"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="168"/>
-      <c r="B238" s="168"/>
+      <c r="A238" s="169"/>
+      <c r="B238" s="169"/>
       <c r="C238" s="121"/>
       <c r="D238" s="122"/>
       <c r="E238" s="122"/>
@@ -11466,8 +11943,8 @@
       <c r="R238" s="11"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="169"/>
-      <c r="B239" s="169"/>
+      <c r="A239" s="170"/>
+      <c r="B239" s="170"/>
       <c r="C239" s="121" t="s">
         <v>114</v>
       </c>
@@ -11497,10 +11974,10 @@
       <c r="R239" s="11"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="167">
+      <c r="A240" s="168">
         <v>37</v>
       </c>
-      <c r="B240" s="167" t="s">
+      <c r="B240" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C240" s="121"/>
@@ -11510,7 +11987,7 @@
       <c r="G240" s="149"/>
       <c r="H240" s="122"/>
       <c r="I240" s="124"/>
-      <c r="J240" s="172">
+      <c r="J240" s="174">
         <f>AVERAGE(I240:I242)</f>
         <v>78.571428571428555</v>
       </c>
@@ -11518,8 +11995,8 @@
       <c r="R240" s="11"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="168"/>
-      <c r="B241" s="168"/>
+      <c r="A241" s="169"/>
+      <c r="B241" s="169"/>
       <c r="C241" s="121"/>
       <c r="D241" s="122"/>
       <c r="E241" s="122"/>
@@ -11532,8 +12009,8 @@
       <c r="R241" s="11"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="169"/>
-      <c r="B242" s="169"/>
+      <c r="A242" s="170"/>
+      <c r="B242" s="170"/>
       <c r="C242" s="121" t="s">
         <v>115</v>
       </c>
@@ -11563,10 +12040,10 @@
       <c r="R242" s="11"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="167">
+      <c r="A243" s="168">
         <v>37</v>
       </c>
-      <c r="B243" s="167" t="s">
+      <c r="B243" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C243" s="121"/>
@@ -11576,7 +12053,7 @@
       <c r="G243" s="149"/>
       <c r="H243" s="122"/>
       <c r="I243" s="124"/>
-      <c r="J243" s="172">
+      <c r="J243" s="174">
         <f>AVERAGE(I243:I245)</f>
         <v>151.21951219512195</v>
       </c>
@@ -11584,8 +12061,8 @@
       <c r="R243" s="11"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="168"/>
-      <c r="B244" s="168"/>
+      <c r="A244" s="169"/>
+      <c r="B244" s="169"/>
       <c r="C244" s="121"/>
       <c r="D244" s="122"/>
       <c r="E244" s="122"/>
@@ -11598,8 +12075,8 @@
       <c r="R244" s="11"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="169"/>
-      <c r="B245" s="169"/>
+      <c r="A245" s="170"/>
+      <c r="B245" s="170"/>
       <c r="C245" s="121" t="s">
         <v>116</v>
       </c>
@@ -11629,10 +12106,10 @@
       <c r="R245" s="11"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="167">
+      <c r="A246" s="168">
         <v>77</v>
       </c>
-      <c r="B246" s="167" t="s">
+      <c r="B246" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C246" s="121"/>
@@ -11642,7 +12119,7 @@
       <c r="G246" s="149"/>
       <c r="H246" s="122"/>
       <c r="I246" s="124"/>
-      <c r="J246" s="172">
+      <c r="J246" s="174">
         <f>AVERAGE(I246:I248)</f>
         <v>863.63636363636454</v>
       </c>
@@ -11650,8 +12127,8 @@
       <c r="R246" s="11"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="168"/>
-      <c r="B247" s="168"/>
+      <c r="A247" s="169"/>
+      <c r="B247" s="169"/>
       <c r="C247" s="121"/>
       <c r="D247" s="122"/>
       <c r="E247" s="122"/>
@@ -11664,8 +12141,8 @@
       <c r="R247" s="11"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="169"/>
-      <c r="B248" s="169"/>
+      <c r="A248" s="170"/>
+      <c r="B248" s="170"/>
       <c r="C248" s="121" t="s">
         <v>117</v>
       </c>
@@ -11695,10 +12172,10 @@
       <c r="R248" s="11"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="167">
+      <c r="A249" s="168">
         <v>77</v>
       </c>
-      <c r="B249" s="167" t="s">
+      <c r="B249" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C249" s="121"/>
@@ -11708,7 +12185,7 @@
       <c r="G249" s="149"/>
       <c r="H249" s="122"/>
       <c r="I249" s="124"/>
-      <c r="J249" s="172">
+      <c r="J249" s="174">
         <f>AVERAGE(I249:I251)</f>
         <v>255.17241379310343</v>
       </c>
@@ -11716,8 +12193,8 @@
       <c r="R249" s="11"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="168"/>
-      <c r="B250" s="168"/>
+      <c r="A250" s="169"/>
+      <c r="B250" s="169"/>
       <c r="C250" s="121"/>
       <c r="D250" s="122"/>
       <c r="E250" s="122"/>
@@ -11730,8 +12207,8 @@
       <c r="R250" s="11"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="169"/>
-      <c r="B251" s="169"/>
+      <c r="A251" s="170"/>
+      <c r="B251" s="170"/>
       <c r="C251" s="121" t="s">
         <v>118</v>
       </c>
@@ -11761,10 +12238,10 @@
       <c r="R251" s="11"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="167">
+      <c r="A252" s="168">
         <v>52</v>
       </c>
-      <c r="B252" s="167" t="s">
+      <c r="B252" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C252" s="121"/>
@@ -11774,7 +12251,7 @@
       <c r="G252" s="149"/>
       <c r="H252" s="122"/>
       <c r="I252" s="124"/>
-      <c r="J252" s="172">
+      <c r="J252" s="174">
         <f>AVERAGE(I252:I254)</f>
         <v>303.84615384615381</v>
       </c>
@@ -11782,8 +12259,8 @@
       <c r="R252" s="11"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="168"/>
-      <c r="B253" s="168"/>
+      <c r="A253" s="169"/>
+      <c r="B253" s="169"/>
       <c r="C253" s="121"/>
       <c r="D253" s="122"/>
       <c r="E253" s="122"/>
@@ -11796,8 +12273,8 @@
       <c r="R253" s="11"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="169"/>
-      <c r="B254" s="169"/>
+      <c r="A254" s="170"/>
+      <c r="B254" s="170"/>
       <c r="C254" s="121" t="s">
         <v>119</v>
       </c>
@@ -11827,10 +12304,10 @@
       <c r="R254" s="11"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="167">
+      <c r="A255" s="168">
         <v>52</v>
       </c>
-      <c r="B255" s="167" t="s">
+      <c r="B255" s="168" t="s">
         <v>73</v>
       </c>
       <c r="C255" s="121"/>
@@ -11840,7 +12317,7 @@
       <c r="G255" s="149"/>
       <c r="H255" s="122"/>
       <c r="I255" s="124"/>
-      <c r="J255" s="172">
+      <c r="J255" s="174">
         <f>AVERAGE(I255:I257)</f>
         <v>51.388888888888907</v>
       </c>
@@ -11848,8 +12325,8 @@
       <c r="R255" s="11"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="168"/>
-      <c r="B256" s="168"/>
+      <c r="A256" s="169"/>
+      <c r="B256" s="169"/>
       <c r="C256" s="121"/>
       <c r="D256" s="122"/>
       <c r="E256" s="122"/>
@@ -11861,9 +12338,9 @@
       <c r="N256" s="11"/>
       <c r="R256" s="11"/>
     </row>
-    <row r="257" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="169"/>
-      <c r="B257" s="169"/>
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="170"/>
+      <c r="B257" s="170"/>
       <c r="C257" s="121" t="s">
         <v>120</v>
       </c>
@@ -11892,193 +12369,834 @@
       <c r="N257" s="11"/>
       <c r="R257" s="11"/>
     </row>
-    <row r="258" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="171"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="N258" s="11"/>
-      <c r="R258" s="11"/>
-    </row>
-    <row r="259" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="171"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
-      <c r="I259" s="11"/>
-      <c r="N259" s="11"/>
-      <c r="R259" s="11"/>
-    </row>
-    <row r="260" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="171"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
-      <c r="I260" s="11"/>
-      <c r="N260" s="11"/>
-      <c r="R260" s="11"/>
-    </row>
-    <row r="261" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="171"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="N261" s="11"/>
-      <c r="R261" s="11"/>
-    </row>
-    <row r="262" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="171"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="N262" s="11"/>
-      <c r="R262" s="11"/>
-    </row>
-    <row r="263" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="171"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="N263" s="11"/>
-      <c r="R263" s="11"/>
-    </row>
-    <row r="264" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="11"/>
-      <c r="N264" s="11"/>
-      <c r="R264" s="11"/>
-    </row>
-    <row r="265" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="N265" s="11"/>
-      <c r="R265" s="11"/>
-    </row>
-    <row r="266" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
-      <c r="H266" s="11"/>
-      <c r="I266" s="11"/>
-      <c r="N266" s="11"/>
-      <c r="R266" s="11"/>
-    </row>
-    <row r="267" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="11"/>
-      <c r="N267" s="11"/>
-      <c r="R267" s="11"/>
-    </row>
-    <row r="268" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="11"/>
-      <c r="N268" s="11"/>
-      <c r="R268" s="11"/>
-    </row>
-    <row r="269" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="11"/>
-      <c r="N269" s="11"/>
-      <c r="R269" s="11"/>
-    </row>
-    <row r="270" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
-      <c r="H270" s="11"/>
-      <c r="I270" s="11"/>
-      <c r="N270" s="11"/>
-      <c r="R270" s="11"/>
-    </row>
-    <row r="271" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
-      <c r="H271" s="11"/>
-      <c r="I271" s="11"/>
-      <c r="N271" s="11"/>
-      <c r="R271" s="11"/>
-    </row>
-    <row r="272" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="N272" s="11"/>
-      <c r="R272" s="11"/>
-    </row>
-    <row r="273" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
-      <c r="H273" s="11"/>
-      <c r="I273" s="11"/>
-      <c r="N273" s="11"/>
-      <c r="R273" s="11"/>
-    </row>
-    <row r="274" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="11"/>
-      <c r="N274" s="11"/>
-      <c r="R274" s="11"/>
-    </row>
-    <row r="275" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="11"/>
-      <c r="N275" s="11"/>
-      <c r="R275" s="11"/>
-    </row>
-    <row r="276" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="183">
+        <v>14</v>
+      </c>
+      <c r="B258" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" s="182" t="s">
+        <v>124</v>
+      </c>
+      <c r="D258" s="184">
+        <v>0.82</v>
+      </c>
+      <c r="E258" s="184">
+        <v>1.82</v>
+      </c>
+      <c r="F258" s="184">
+        <v>1.61</v>
+      </c>
+      <c r="G258" s="182">
+        <v>1</v>
+      </c>
+      <c r="H258" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="I258" s="33">
+        <v>26.582278479999999</v>
+      </c>
+      <c r="J258" s="182"/>
+      <c r="K258" s="182"/>
+      <c r="L258" s="182"/>
+      <c r="M258" s="182"/>
+      <c r="N258" s="182"/>
+      <c r="O258" s="182"/>
+      <c r="P258" s="182"/>
+      <c r="Q258" s="182"/>
+      <c r="R258" s="182"/>
+      <c r="S258" s="182"/>
+      <c r="T258" s="182"/>
+      <c r="U258" s="182"/>
+      <c r="V258" s="182"/>
+      <c r="W258" s="182"/>
+      <c r="X258" s="182"/>
+      <c r="Y258" s="182"/>
+      <c r="Z258" s="182"/>
+    </row>
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="183">
+        <v>14</v>
+      </c>
+      <c r="B259" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C259" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="D259" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E259" s="184">
+        <v>1.82</v>
+      </c>
+      <c r="F259" s="184">
+        <v>1.48</v>
+      </c>
+      <c r="G259" s="182">
+        <v>1.03</v>
+      </c>
+      <c r="H259" s="33">
+        <v>0.69</v>
+      </c>
+      <c r="I259" s="33">
+        <v>49.275362319999999</v>
+      </c>
+      <c r="J259" s="182"/>
+      <c r="K259" s="182"/>
+      <c r="L259" s="182"/>
+      <c r="M259" s="182"/>
+      <c r="N259" s="182"/>
+      <c r="O259" s="182"/>
+      <c r="P259" s="182"/>
+      <c r="Q259" s="182"/>
+      <c r="R259" s="182"/>
+      <c r="S259" s="182"/>
+      <c r="T259" s="182"/>
+      <c r="U259" s="182"/>
+      <c r="V259" s="182"/>
+      <c r="W259" s="182"/>
+      <c r="X259" s="182"/>
+      <c r="Y259" s="182"/>
+      <c r="Z259" s="182"/>
+    </row>
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="183">
+        <v>48</v>
+      </c>
+      <c r="B260" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" s="182" t="s">
+        <v>126</v>
+      </c>
+      <c r="D260" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E260" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F260" s="184">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G260" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H260" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="I260" s="33">
+        <v>225.8064516</v>
+      </c>
+      <c r="J260" s="182"/>
+      <c r="K260" s="182"/>
+      <c r="L260" s="182"/>
+      <c r="M260" s="182"/>
+      <c r="N260" s="182"/>
+      <c r="O260" s="182"/>
+      <c r="P260" s="182"/>
+      <c r="Q260" s="182"/>
+      <c r="R260" s="182"/>
+      <c r="S260" s="182"/>
+      <c r="T260" s="182"/>
+      <c r="U260" s="182"/>
+      <c r="V260" s="182"/>
+      <c r="W260" s="182"/>
+      <c r="X260" s="182"/>
+      <c r="Y260" s="182"/>
+      <c r="Z260" s="182"/>
+    </row>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="183">
+        <v>48</v>
+      </c>
+      <c r="B261" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C261" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="D261" s="184">
+        <v>0.83</v>
+      </c>
+      <c r="E261" s="184">
+        <v>1.85</v>
+      </c>
+      <c r="F261" s="184">
+        <v>1.24</v>
+      </c>
+      <c r="G261" s="182">
+        <v>1.02</v>
+      </c>
+      <c r="H261" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="I261" s="33">
+        <v>148.7804878</v>
+      </c>
+      <c r="J261" s="182"/>
+      <c r="K261" s="182"/>
+      <c r="L261" s="182"/>
+      <c r="M261" s="182"/>
+      <c r="N261" s="182"/>
+      <c r="O261" s="182"/>
+      <c r="P261" s="182"/>
+      <c r="Q261" s="182"/>
+      <c r="R261" s="182"/>
+      <c r="S261" s="182"/>
+      <c r="T261" s="182"/>
+      <c r="U261" s="182"/>
+      <c r="V261" s="182"/>
+      <c r="W261" s="182"/>
+      <c r="X261" s="182"/>
+      <c r="Y261" s="182"/>
+      <c r="Z261" s="182"/>
+    </row>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="183">
+        <v>35</v>
+      </c>
+      <c r="B262" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262" s="182" t="s">
+        <v>128</v>
+      </c>
+      <c r="D262" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E262" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F262" s="184">
+        <v>1.49</v>
+      </c>
+      <c r="G262" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H262" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="I262" s="33">
+        <v>44.285714290000001</v>
+      </c>
+      <c r="J262" s="182"/>
+      <c r="K262" s="182"/>
+      <c r="L262" s="182"/>
+      <c r="M262" s="182"/>
+      <c r="N262" s="182"/>
+      <c r="O262" s="182"/>
+      <c r="P262" s="182"/>
+      <c r="Q262" s="182"/>
+      <c r="R262" s="182"/>
+      <c r="S262" s="182"/>
+      <c r="T262" s="182"/>
+      <c r="U262" s="182"/>
+      <c r="V262" s="182"/>
+      <c r="W262" s="182"/>
+      <c r="X262" s="182"/>
+      <c r="Y262" s="182"/>
+      <c r="Z262" s="182"/>
+    </row>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="183">
+        <v>35</v>
+      </c>
+      <c r="B263" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C263" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="D263" s="184">
+        <v>0.81</v>
+      </c>
+      <c r="E263" s="184">
+        <v>1.82</v>
+      </c>
+      <c r="F263" s="184">
+        <v>1.53</v>
+      </c>
+      <c r="G263" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H263" s="33">
+        <v>0.72</v>
+      </c>
+      <c r="I263" s="33">
+        <v>40.277777780000001</v>
+      </c>
+      <c r="J263" s="182"/>
+      <c r="K263" s="182"/>
+      <c r="L263" s="182"/>
+      <c r="M263" s="182"/>
+      <c r="N263" s="182"/>
+      <c r="O263" s="182"/>
+      <c r="P263" s="182"/>
+      <c r="Q263" s="182"/>
+      <c r="R263" s="182"/>
+      <c r="S263" s="182"/>
+      <c r="T263" s="182"/>
+      <c r="U263" s="182"/>
+      <c r="V263" s="182"/>
+      <c r="W263" s="182"/>
+      <c r="X263" s="182"/>
+      <c r="Y263" s="182"/>
+      <c r="Z263" s="182"/>
+    </row>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="183">
+        <v>49</v>
+      </c>
+      <c r="B264" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="D264" s="184">
+        <v>0.82</v>
+      </c>
+      <c r="E264" s="184">
+        <v>1.82</v>
+      </c>
+      <c r="F264" s="184">
+        <v>1.05</v>
+      </c>
+      <c r="G264" s="182">
+        <v>1</v>
+      </c>
+      <c r="H264" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="I264" s="33">
+        <v>334.78260870000003</v>
+      </c>
+      <c r="J264" s="182"/>
+      <c r="K264" s="182"/>
+      <c r="L264" s="182"/>
+      <c r="M264" s="182"/>
+      <c r="N264" s="182"/>
+      <c r="O264" s="182"/>
+      <c r="P264" s="182"/>
+      <c r="Q264" s="182"/>
+      <c r="R264" s="182"/>
+      <c r="S264" s="182"/>
+      <c r="T264" s="182"/>
+      <c r="U264" s="182"/>
+      <c r="V264" s="182"/>
+      <c r="W264" s="182"/>
+      <c r="X264" s="182"/>
+      <c r="Y264" s="182"/>
+      <c r="Z264" s="182"/>
+    </row>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="183">
+        <v>49</v>
+      </c>
+      <c r="B265" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C265" s="182" t="s">
+        <v>131</v>
+      </c>
+      <c r="D265" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E265" s="184">
+        <v>1.79</v>
+      </c>
+      <c r="F265" s="184">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G265" s="182">
+        <v>1</v>
+      </c>
+      <c r="H265" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="I265" s="33">
+        <v>233.33333329999999</v>
+      </c>
+      <c r="J265" s="182"/>
+      <c r="K265" s="182"/>
+      <c r="L265" s="182"/>
+      <c r="M265" s="182"/>
+      <c r="N265" s="182"/>
+      <c r="O265" s="182"/>
+      <c r="P265" s="182"/>
+      <c r="Q265" s="182"/>
+      <c r="R265" s="182"/>
+      <c r="S265" s="182"/>
+      <c r="T265" s="182"/>
+      <c r="U265" s="182"/>
+      <c r="V265" s="182"/>
+      <c r="W265" s="182"/>
+      <c r="X265" s="182"/>
+      <c r="Y265" s="182"/>
+      <c r="Z265" s="182"/>
+    </row>
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="183">
+        <v>8</v>
+      </c>
+      <c r="B266" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="D266" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E266" s="184">
+        <v>1.79</v>
+      </c>
+      <c r="F266" s="184">
+        <v>1.48</v>
+      </c>
+      <c r="G266" s="182">
+        <v>1</v>
+      </c>
+      <c r="H266" s="33">
+        <v>0.69</v>
+      </c>
+      <c r="I266" s="33">
+        <v>44.927536230000001</v>
+      </c>
+      <c r="J266" s="182"/>
+      <c r="K266" s="182"/>
+      <c r="L266" s="182"/>
+      <c r="M266" s="182"/>
+      <c r="N266" s="182"/>
+      <c r="O266" s="182"/>
+      <c r="P266" s="182"/>
+      <c r="Q266" s="182"/>
+      <c r="R266" s="182"/>
+      <c r="S266" s="182"/>
+      <c r="T266" s="182"/>
+      <c r="U266" s="182"/>
+      <c r="V266" s="182"/>
+      <c r="W266" s="182"/>
+      <c r="X266" s="182"/>
+      <c r="Y266" s="182"/>
+      <c r="Z266" s="182"/>
+    </row>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="183">
+        <v>8</v>
+      </c>
+      <c r="B267" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C267" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D267" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E267" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F267" s="184">
+        <v>1.42</v>
+      </c>
+      <c r="G267" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H267" s="33">
+        <v>0.63</v>
+      </c>
+      <c r="I267" s="33">
+        <v>60.317460320000002</v>
+      </c>
+      <c r="J267" s="182"/>
+      <c r="K267" s="182"/>
+      <c r="L267" s="182"/>
+      <c r="M267" s="182"/>
+      <c r="N267" s="182"/>
+      <c r="O267" s="182"/>
+      <c r="P267" s="182"/>
+      <c r="Q267" s="182"/>
+      <c r="R267" s="182"/>
+      <c r="S267" s="182"/>
+      <c r="T267" s="182"/>
+      <c r="U267" s="182"/>
+      <c r="V267" s="182"/>
+      <c r="W267" s="182"/>
+      <c r="X267" s="182"/>
+      <c r="Y267" s="182"/>
+      <c r="Z267" s="182"/>
+    </row>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="183">
+        <v>46</v>
+      </c>
+      <c r="B268" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="D268" s="184">
+        <v>0.78</v>
+      </c>
+      <c r="E268" s="184">
+        <v>1.78</v>
+      </c>
+      <c r="F268" s="184">
+        <v>1.01</v>
+      </c>
+      <c r="G268" s="182">
+        <v>1</v>
+      </c>
+      <c r="H268" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="I268" s="33">
+        <v>334.78260870000003</v>
+      </c>
+      <c r="J268" s="182"/>
+      <c r="K268" s="182"/>
+      <c r="L268" s="182"/>
+      <c r="M268" s="182"/>
+      <c r="N268" s="182"/>
+      <c r="O268" s="182"/>
+      <c r="P268" s="182"/>
+      <c r="Q268" s="182"/>
+      <c r="R268" s="182"/>
+      <c r="S268" s="182"/>
+      <c r="T268" s="182"/>
+      <c r="U268" s="182"/>
+      <c r="V268" s="182"/>
+      <c r="W268" s="182"/>
+      <c r="X268" s="182"/>
+      <c r="Y268" s="182"/>
+      <c r="Z268" s="182"/>
+    </row>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="183">
+        <v>46</v>
+      </c>
+      <c r="B269" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C269" s="182" t="s">
+        <v>135</v>
+      </c>
+      <c r="D269" s="184">
+        <v>0.78</v>
+      </c>
+      <c r="E269" s="184">
+        <v>1.79</v>
+      </c>
+      <c r="F269" s="184">
+        <v>1.39</v>
+      </c>
+      <c r="G269" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H269" s="33">
+        <v>0.61</v>
+      </c>
+      <c r="I269" s="33">
+        <v>65.573770490000001</v>
+      </c>
+      <c r="J269" s="182"/>
+      <c r="K269" s="182"/>
+      <c r="L269" s="182"/>
+      <c r="M269" s="182"/>
+      <c r="N269" s="182"/>
+      <c r="O269" s="182"/>
+      <c r="P269" s="182"/>
+      <c r="Q269" s="182"/>
+      <c r="R269" s="182"/>
+      <c r="S269" s="182"/>
+      <c r="T269" s="182"/>
+      <c r="U269" s="182"/>
+      <c r="V269" s="182"/>
+      <c r="W269" s="182"/>
+      <c r="X269" s="182"/>
+      <c r="Y269" s="182"/>
+      <c r="Z269" s="182"/>
+    </row>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="183">
+        <v>85</v>
+      </c>
+      <c r="B270" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="D270" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E270" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F270" s="184">
+        <v>1.77</v>
+      </c>
+      <c r="G270" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H270" s="33">
+        <v>0.98</v>
+      </c>
+      <c r="I270" s="33">
+        <v>3.0612244899999999</v>
+      </c>
+      <c r="J270" s="182"/>
+      <c r="K270" s="182"/>
+      <c r="L270" s="182"/>
+      <c r="M270" s="182"/>
+      <c r="N270" s="182"/>
+      <c r="O270" s="182"/>
+      <c r="P270" s="182"/>
+      <c r="Q270" s="182"/>
+      <c r="R270" s="182"/>
+      <c r="S270" s="182"/>
+      <c r="T270" s="182"/>
+      <c r="U270" s="182"/>
+      <c r="V270" s="182"/>
+      <c r="W270" s="182"/>
+      <c r="X270" s="182"/>
+      <c r="Y270" s="182"/>
+      <c r="Z270" s="182"/>
+    </row>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="183">
+        <v>85</v>
+      </c>
+      <c r="B271" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C271" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="D271" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E271" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F271" s="184">
+        <v>1.54</v>
+      </c>
+      <c r="G271" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H271" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="I271" s="33">
+        <v>34.666666669999998</v>
+      </c>
+      <c r="J271" s="182"/>
+      <c r="K271" s="182"/>
+      <c r="L271" s="182"/>
+      <c r="M271" s="182"/>
+      <c r="N271" s="182"/>
+      <c r="O271" s="182"/>
+      <c r="P271" s="182"/>
+      <c r="Q271" s="182"/>
+      <c r="R271" s="182"/>
+      <c r="S271" s="182"/>
+      <c r="T271" s="182"/>
+      <c r="U271" s="182"/>
+      <c r="V271" s="182"/>
+      <c r="W271" s="182"/>
+      <c r="X271" s="182"/>
+      <c r="Y271" s="182"/>
+      <c r="Z271" s="182"/>
+    </row>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="183">
+        <v>79</v>
+      </c>
+      <c r="B272" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" s="182" t="s">
+        <v>138</v>
+      </c>
+      <c r="D272" s="184">
+        <v>0.8</v>
+      </c>
+      <c r="E272" s="184">
+        <v>1.81</v>
+      </c>
+      <c r="F272" s="184">
+        <v>1.02</v>
+      </c>
+      <c r="G272" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H272" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="I272" s="33">
+        <v>359.09090909999998</v>
+      </c>
+      <c r="J272" s="182"/>
+      <c r="K272" s="182"/>
+      <c r="L272" s="182"/>
+      <c r="M272" s="182"/>
+      <c r="N272" s="182"/>
+      <c r="O272" s="182"/>
+      <c r="P272" s="182"/>
+      <c r="Q272" s="182"/>
+      <c r="R272" s="182"/>
+      <c r="S272" s="182"/>
+      <c r="T272" s="182"/>
+      <c r="U272" s="182"/>
+      <c r="V272" s="182"/>
+      <c r="W272" s="182"/>
+      <c r="X272" s="182"/>
+      <c r="Y272" s="182"/>
+      <c r="Z272" s="182"/>
+    </row>
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="183">
+        <v>79</v>
+      </c>
+      <c r="B273" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C273" s="182" t="s">
+        <v>139</v>
+      </c>
+      <c r="D273" s="184">
+        <v>0.81</v>
+      </c>
+      <c r="E273" s="184">
+        <v>1.81</v>
+      </c>
+      <c r="F273" s="184">
+        <v>1.05</v>
+      </c>
+      <c r="G273" s="182">
+        <v>1</v>
+      </c>
+      <c r="H273" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="I273" s="33">
+        <v>316.66666670000001</v>
+      </c>
+      <c r="J273" s="182"/>
+      <c r="K273" s="182"/>
+      <c r="L273" s="182"/>
+      <c r="M273" s="182"/>
+      <c r="N273" s="182"/>
+      <c r="O273" s="182"/>
+      <c r="P273" s="182"/>
+      <c r="Q273" s="182"/>
+      <c r="R273" s="182"/>
+      <c r="S273" s="182"/>
+      <c r="T273" s="182"/>
+      <c r="U273" s="182"/>
+      <c r="V273" s="182"/>
+      <c r="W273" s="182"/>
+      <c r="X273" s="182"/>
+      <c r="Y273" s="182"/>
+      <c r="Z273" s="182"/>
+    </row>
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="183">
+        <v>33</v>
+      </c>
+      <c r="B274" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" s="182" t="s">
+        <v>140</v>
+      </c>
+      <c r="D274" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E274" s="184">
+        <v>1.8</v>
+      </c>
+      <c r="F274" s="184">
+        <v>1.54</v>
+      </c>
+      <c r="G274" s="182">
+        <v>1.01</v>
+      </c>
+      <c r="H274" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="I274" s="33">
+        <v>34.666666669999998</v>
+      </c>
+      <c r="J274" s="182"/>
+      <c r="K274" s="182"/>
+      <c r="L274" s="182"/>
+      <c r="M274" s="182"/>
+      <c r="N274" s="182"/>
+      <c r="O274" s="182"/>
+      <c r="P274" s="182"/>
+      <c r="Q274" s="182"/>
+      <c r="R274" s="182"/>
+      <c r="S274" s="182"/>
+      <c r="T274" s="182"/>
+      <c r="U274" s="182"/>
+      <c r="V274" s="182"/>
+      <c r="W274" s="182"/>
+      <c r="X274" s="182"/>
+      <c r="Y274" s="182"/>
+      <c r="Z274" s="182"/>
+    </row>
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="182">
+        <v>33</v>
+      </c>
+      <c r="B275" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C275" s="182" t="s">
+        <v>141</v>
+      </c>
+      <c r="D275" s="184">
+        <v>0.81</v>
+      </c>
+      <c r="E275" s="184">
+        <v>1.81</v>
+      </c>
+      <c r="F275" s="184">
+        <v>1.57</v>
+      </c>
+      <c r="G275" s="182">
+        <v>1</v>
+      </c>
+      <c r="H275" s="33">
+        <v>0.76</v>
+      </c>
+      <c r="I275" s="33">
+        <v>31.578947370000002</v>
+      </c>
+      <c r="J275" s="182"/>
+      <c r="K275" s="182"/>
+      <c r="L275" s="182"/>
+      <c r="M275" s="182"/>
+      <c r="N275" s="182"/>
+      <c r="O275" s="182"/>
+      <c r="P275" s="182"/>
+      <c r="Q275" s="182"/>
+      <c r="R275" s="182"/>
+      <c r="S275" s="182"/>
+      <c r="T275" s="182"/>
+      <c r="U275" s="182"/>
+      <c r="V275" s="182"/>
+      <c r="W275" s="182"/>
+      <c r="X275" s="182"/>
+      <c r="Y275" s="182"/>
+    </row>
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
@@ -12088,7 +13206,7 @@
       <c r="N276" s="11"/>
       <c r="R276" s="11"/>
     </row>
-    <row r="277" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
@@ -12098,7 +13216,7 @@
       <c r="N277" s="11"/>
       <c r="R277" s="11"/>
     </row>
-    <row r="278" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
@@ -12108,7 +13226,7 @@
       <c r="N278" s="11"/>
       <c r="R278" s="11"/>
     </row>
-    <row r="279" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
@@ -12118,7 +13236,7 @@
       <c r="N279" s="11"/>
       <c r="R279" s="11"/>
     </row>
-    <row r="280" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
@@ -12128,7 +13246,7 @@
       <c r="N280" s="11"/>
       <c r="R280" s="11"/>
     </row>
-    <row r="281" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
@@ -12138,7 +13256,7 @@
       <c r="N281" s="11"/>
       <c r="R281" s="11"/>
     </row>
-    <row r="282" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
@@ -12148,7 +13266,7 @@
       <c r="N282" s="11"/>
       <c r="R282" s="11"/>
     </row>
-    <row r="283" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
@@ -12158,7 +13276,7 @@
       <c r="N283" s="11"/>
       <c r="R283" s="11"/>
     </row>
-    <row r="284" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
@@ -12168,7 +13286,7 @@
       <c r="N284" s="11"/>
       <c r="R284" s="11"/>
     </row>
-    <row r="285" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
@@ -12178,7 +13296,7 @@
       <c r="N285" s="11"/>
       <c r="R285" s="11"/>
     </row>
-    <row r="286" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
@@ -12188,7 +13306,7 @@
       <c r="N286" s="11"/>
       <c r="R286" s="11"/>
     </row>
-    <row r="287" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
@@ -12198,7 +13316,7 @@
       <c r="N287" s="11"/>
       <c r="R287" s="11"/>
     </row>
-    <row r="288" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
@@ -19329,43 +20447,122 @@
       <c r="R1000" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
+  <mergeCells count="173">
+    <mergeCell ref="J150:J152"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="J168:J170"/>
+    <mergeCell ref="J171:J173"/>
+    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="J177:J179"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="J186:J188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="J189:J191"/>
+    <mergeCell ref="J192:J194"/>
+    <mergeCell ref="J195:J197"/>
+    <mergeCell ref="J198:J200"/>
+    <mergeCell ref="J201:J203"/>
+    <mergeCell ref="J204:J206"/>
+    <mergeCell ref="J207:J209"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="J216:J218"/>
+    <mergeCell ref="J219:J221"/>
+    <mergeCell ref="J222:J224"/>
+    <mergeCell ref="J225:J227"/>
+    <mergeCell ref="J228:J230"/>
+    <mergeCell ref="J252:J254"/>
+    <mergeCell ref="J255:J257"/>
+    <mergeCell ref="J231:J233"/>
+    <mergeCell ref="J234:J236"/>
+    <mergeCell ref="J237:J239"/>
+    <mergeCell ref="J240:J242"/>
+    <mergeCell ref="J243:J245"/>
+    <mergeCell ref="J246:J248"/>
+    <mergeCell ref="J249:J251"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
     <mergeCell ref="A141:A143"/>
     <mergeCell ref="B141:B143"/>
     <mergeCell ref="A144:A146"/>
@@ -19390,121 +20587,40 @@
     <mergeCell ref="B180:B182"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="J144:J146"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J228:J230"/>
-    <mergeCell ref="J252:J254"/>
-    <mergeCell ref="J255:J257"/>
-    <mergeCell ref="J231:J233"/>
-    <mergeCell ref="J234:J236"/>
-    <mergeCell ref="J237:J239"/>
-    <mergeCell ref="J240:J242"/>
-    <mergeCell ref="J243:J245"/>
-    <mergeCell ref="J246:J248"/>
-    <mergeCell ref="J249:J251"/>
-    <mergeCell ref="J201:J203"/>
-    <mergeCell ref="J204:J206"/>
-    <mergeCell ref="J207:J209"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="J216:J218"/>
-    <mergeCell ref="J219:J221"/>
-    <mergeCell ref="J222:J224"/>
-    <mergeCell ref="J225:J227"/>
-    <mergeCell ref="J177:J179"/>
-    <mergeCell ref="J180:J182"/>
-    <mergeCell ref="J183:J185"/>
-    <mergeCell ref="J186:J188"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="J189:J191"/>
-    <mergeCell ref="J192:J194"/>
-    <mergeCell ref="J195:J197"/>
-    <mergeCell ref="J198:J200"/>
-    <mergeCell ref="J150:J152"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="J165:J167"/>
-    <mergeCell ref="J168:J170"/>
-    <mergeCell ref="J171:J173"/>
-    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -19516,7 +20632,7 @@
   <dimension ref="A1:N964"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
@@ -19605,7 +20721,7 @@
         <f t="shared" ref="I2:I49" si="2">(($G2-$H2)/$H2)*100</f>
         <v>543.75000000000034</v>
       </c>
-      <c r="J2" s="175">
+      <c r="J2" s="178">
         <f>AVERAGE(I2:I4)</f>
         <v>552.36111111111143</v>
       </c>
@@ -19641,7 +20757,7 @@
         <f t="shared" si="2"/>
         <v>566.66666666666708</v>
       </c>
-      <c r="J3" s="176"/>
+      <c r="J3" s="180"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="162">
@@ -19674,7 +20790,7 @@
         <f t="shared" si="2"/>
         <v>546.66666666666708</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="180"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="162">
@@ -19707,7 +20823,7 @@
         <f t="shared" si="2"/>
         <v>52.307692307692285</v>
       </c>
-      <c r="J5" s="175">
+      <c r="J5" s="178">
         <f>AVERAGE(I5:I7)</f>
         <v>50.785024814875534</v>
       </c>
@@ -19743,7 +20859,7 @@
         <f t="shared" si="2"/>
         <v>49.253731343283562</v>
       </c>
-      <c r="J6" s="176"/>
+      <c r="J6" s="180"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="162">
@@ -19776,7 +20892,7 @@
         <f t="shared" si="2"/>
         <v>50.793650793650755</v>
       </c>
-      <c r="J7" s="176"/>
+      <c r="J7" s="180"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="162">
@@ -19809,7 +20925,7 @@
         <f t="shared" si="2"/>
         <v>24.691358024691322</v>
       </c>
-      <c r="J8" s="175">
+      <c r="J8" s="178">
         <f>AVERAGE(I8:I10)</f>
         <v>25.845914522286648</v>
       </c>
@@ -19845,7 +20961,7 @@
         <f t="shared" si="2"/>
         <v>28.749999999999972</v>
       </c>
-      <c r="J9" s="176"/>
+      <c r="J9" s="180"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="162">
@@ -19878,7 +20994,7 @@
         <f t="shared" si="2"/>
         <v>24.09638554216864</v>
       </c>
-      <c r="J10" s="176"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="162">
@@ -19911,7 +21027,7 @@
         <f t="shared" si="2"/>
         <v>21.951219512195085</v>
       </c>
-      <c r="J11" s="175">
+      <c r="J11" s="178">
         <f>AVERAGE(I11:I13)</f>
         <v>23.37398373983736</v>
       </c>
@@ -19947,7 +21063,7 @@
         <f t="shared" si="2"/>
         <v>24.999999999999968</v>
       </c>
-      <c r="J12" s="176"/>
+      <c r="J12" s="180"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="162">
@@ -19980,7 +21096,7 @@
         <f t="shared" si="2"/>
         <v>23.170731707317039</v>
       </c>
-      <c r="J13" s="176"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="162">
@@ -20013,7 +21129,7 @@
         <f t="shared" si="2"/>
         <v>58.064516129032285</v>
       </c>
-      <c r="J14" s="175">
+      <c r="J14" s="178">
         <f>AVERAGE(I14:I16)</f>
         <v>59.56647892131766</v>
       </c>
@@ -20049,7 +21165,7 @@
         <f t="shared" si="2"/>
         <v>58.730158730158756</v>
       </c>
-      <c r="J15" s="176"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="162">
@@ -20082,7 +21198,7 @@
         <f t="shared" si="2"/>
         <v>61.904761904761941</v>
       </c>
-      <c r="J16" s="176"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="162">
@@ -20115,7 +21231,7 @@
         <f t="shared" si="2"/>
         <v>58.064516129032285</v>
       </c>
-      <c r="J17" s="175">
+      <c r="J17" s="178">
         <f>AVERAGE(I17:I19)</f>
         <v>52.711134155525123</v>
       </c>
@@ -20151,7 +21267,7 @@
         <f t="shared" si="2"/>
         <v>52.307692307692321</v>
       </c>
-      <c r="J18" s="176"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="162">
@@ -20184,7 +21300,7 @@
         <f t="shared" si="2"/>
         <v>47.761194029850763</v>
       </c>
-      <c r="J19" s="176"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="162">
@@ -20217,7 +21333,7 @@
         <f t="shared" si="2"/>
         <v>86.538461538461533</v>
       </c>
-      <c r="J20" s="175">
+      <c r="J20" s="178">
         <f>AVERAGE(I20:I22)</f>
         <v>90.426400759734079</v>
       </c>
@@ -20253,7 +21369,7 @@
         <f t="shared" si="2"/>
         <v>90.740740740740733</v>
       </c>
-      <c r="J21" s="176"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="162">
@@ -20286,7 +21402,7 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="J22" s="176"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="162">
@@ -20319,7 +21435,7 @@
         <f t="shared" si="2"/>
         <v>19.999999999999989</v>
       </c>
-      <c r="J23" s="175">
+      <c r="J23" s="178">
         <f>AVERAGE(I23:I25)</f>
         <v>20.806151435008299</v>
       </c>
@@ -20355,7 +21471,7 @@
         <f t="shared" si="2"/>
         <v>21.686746987951771</v>
       </c>
-      <c r="J24" s="176"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="162">
@@ -20388,7 +21504,7 @@
         <f t="shared" si="2"/>
         <v>20.731707317073134</v>
       </c>
-      <c r="J25" s="176"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="162">
@@ -20421,7 +21537,7 @@
         <f t="shared" si="2"/>
         <v>621.42857142857179</v>
       </c>
-      <c r="J26" s="175">
+      <c r="J26" s="178">
         <f>AVERAGE(I26:I28)</f>
         <v>669.10866910866923</v>
       </c>
@@ -20458,7 +21574,7 @@
         <f t="shared" si="2"/>
         <v>669.23076923076985</v>
       </c>
-      <c r="J27" s="176"/>
+      <c r="J27" s="180"/>
       <c r="N27" s="151"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20492,7 +21608,7 @@
         <f t="shared" si="2"/>
         <v>716.66666666666595</v>
       </c>
-      <c r="J28" s="176"/>
+      <c r="J28" s="180"/>
       <c r="N28" s="151"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20526,7 +21642,7 @@
         <f t="shared" si="2"/>
         <v>1199.9999999999986</v>
       </c>
-      <c r="J29" s="175">
+      <c r="J29" s="178">
         <f>AVERAGE(I29:I31)</f>
         <v>1077.7777777777767</v>
       </c>
@@ -20563,7 +21679,7 @@
         <f t="shared" si="2"/>
         <v>1033.3333333333321</v>
       </c>
-      <c r="J30" s="176"/>
+      <c r="J30" s="180"/>
       <c r="N30" s="151"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20597,7 +21713,7 @@
         <f t="shared" si="2"/>
         <v>999.99999999999898</v>
       </c>
-      <c r="J31" s="176"/>
+      <c r="J31" s="180"/>
       <c r="N31" s="151"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20631,7 +21747,7 @@
         <f t="shared" si="2"/>
         <v>54.687500000000021</v>
       </c>
-      <c r="J32" s="175">
+      <c r="J32" s="178">
         <f>AVERAGE(I32:I34)</f>
         <v>42.672030583214784</v>
       </c>
@@ -20668,7 +21784,7 @@
         <f t="shared" si="2"/>
         <v>36.842105263157869</v>
       </c>
-      <c r="J33" s="176"/>
+      <c r="J33" s="180"/>
       <c r="N33" s="151"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20702,7 +21818,7 @@
         <f t="shared" si="2"/>
         <v>36.486486486486456</v>
       </c>
-      <c r="J34" s="176"/>
+      <c r="J34" s="180"/>
       <c r="N34" s="151"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20737,7 +21853,7 @@
         <f t="shared" si="2"/>
         <v>129.54545454545459</v>
       </c>
-      <c r="J35" s="175">
+      <c r="J35" s="178">
         <f>AVERAGE(I35:I37)</f>
         <v>132.06483439041583</v>
       </c>
@@ -20774,7 +21890,7 @@
         <f t="shared" si="2"/>
         <v>132.55813953488376</v>
       </c>
-      <c r="J36" s="176"/>
+      <c r="J36" s="180"/>
       <c r="N36" s="151"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20808,7 +21924,7 @@
         <f t="shared" si="2"/>
         <v>134.09090909090912</v>
       </c>
-      <c r="J37" s="176"/>
+      <c r="J37" s="180"/>
       <c r="N37" s="151"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20842,7 +21958,7 @@
         <f t="shared" si="2"/>
         <v>607.14285714285745</v>
       </c>
-      <c r="J38" s="175">
+      <c r="J38" s="178">
         <f>AVERAGE(I38:I40)</f>
         <v>552.38095238095275</v>
       </c>
@@ -20879,7 +21995,7 @@
         <f t="shared" si="2"/>
         <v>525.00000000000034</v>
       </c>
-      <c r="J39" s="176"/>
+      <c r="J39" s="180"/>
       <c r="N39" s="151"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20913,7 +22029,7 @@
         <f t="shared" si="2"/>
         <v>525.00000000000034</v>
       </c>
-      <c r="J40" s="176"/>
+      <c r="J40" s="180"/>
       <c r="N40" s="151"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20947,7 +22063,7 @@
         <f t="shared" si="2"/>
         <v>54.545454545454561</v>
       </c>
-      <c r="J41" s="175">
+      <c r="J41" s="178">
         <f>AVERAGE(I41:I43)</f>
         <v>58.958027859237554</v>
       </c>
@@ -20984,7 +22100,7 @@
         <f t="shared" si="2"/>
         <v>64.516129032258092</v>
       </c>
-      <c r="J42" s="176"/>
+      <c r="J42" s="180"/>
       <c r="N42" s="151"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21018,7 +22134,7 @@
         <f t="shared" si="2"/>
         <v>57.812500000000021</v>
       </c>
-      <c r="J43" s="176"/>
+      <c r="J43" s="180"/>
       <c r="N43" s="151"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21052,7 +22168,7 @@
         <f t="shared" si="2"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="J44" s="175">
+      <c r="J44" s="178">
         <f>AVERAGE(I44:I46)</f>
         <v>253.98467432950179</v>
       </c>
@@ -21089,7 +22205,7 @@
         <f t="shared" si="2"/>
         <v>258.62068965517227</v>
       </c>
-      <c r="J45" s="176"/>
+      <c r="J45" s="180"/>
       <c r="N45" s="151"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21123,7 +22239,7 @@
         <f t="shared" si="2"/>
         <v>236.66666666666654</v>
       </c>
-      <c r="J46" s="176"/>
+      <c r="J46" s="180"/>
       <c r="N46" s="151"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21157,7 +22273,7 @@
         <f t="shared" si="2"/>
         <v>26.249999999999968</v>
       </c>
-      <c r="J47" s="175">
+      <c r="J47" s="178">
         <f>AVERAGE(I47:I49)</f>
         <v>25.202991452991437</v>
       </c>
@@ -21194,7 +22310,7 @@
         <f t="shared" si="2"/>
         <v>24.999999999999993</v>
       </c>
-      <c r="J48" s="176"/>
+      <c r="J48" s="180"/>
       <c r="N48" s="151"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21228,7 +22344,7 @@
         <f t="shared" si="2"/>
         <v>24.358974358974351</v>
       </c>
-      <c r="J49" s="176"/>
+      <c r="J49" s="180"/>
       <c r="N49" s="151"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21289,7 +22405,7 @@
         <f t="shared" ref="I53:I124" si="5">(($G53-$H53)/$H53)*100</f>
         <v>63.934426229508169</v>
       </c>
-      <c r="J53" s="175">
+      <c r="J53" s="178">
         <f>AVERAGE(I53:I55)</f>
         <v>63.135771332492624</v>
       </c>
@@ -21394,7 +22510,7 @@
         <f t="shared" si="5"/>
         <v>122.22222222222226</v>
       </c>
-      <c r="J56" s="175">
+      <c r="J56" s="178">
         <f>AVERAGE(I56:I58)</f>
         <v>77.706552706552699</v>
       </c>
@@ -21499,7 +22615,7 @@
         <f t="shared" si="5"/>
         <v>799.9999999999992</v>
       </c>
-      <c r="J59" s="178">
+      <c r="J59" s="179">
         <f>AVERAGE(I59:I61)</f>
         <v>792.17171717171675</v>
       </c>
@@ -21604,7 +22720,7 @@
         <f t="shared" si="5"/>
         <v>166.66666666666674</v>
       </c>
-      <c r="J62" s="175">
+      <c r="J62" s="178">
         <f>AVERAGE(I62:I64)</f>
         <v>126.38888888888887</v>
       </c>
@@ -21709,7 +22825,7 @@
         <f t="shared" si="5"/>
         <v>25.3012048192771</v>
       </c>
-      <c r="J65" s="175">
+      <c r="J65" s="178">
         <f>AVERAGE(I65:I67)</f>
         <v>26.049768695033276</v>
       </c>
@@ -21814,7 +22930,7 @@
         <f t="shared" si="5"/>
         <v>24.69135802469135</v>
       </c>
-      <c r="J68" s="175">
+      <c r="J68" s="178">
         <f>AVERAGE(I68:I70)</f>
         <v>23.182945573320069</v>
       </c>
@@ -21919,7 +23035,7 @@
         <f t="shared" si="5"/>
         <v>75.438596491228054</v>
       </c>
-      <c r="J71" s="175">
+      <c r="J71" s="178">
         <f>AVERAGE(I71:I73)</f>
         <v>72.234949537023226</v>
       </c>
@@ -22024,7 +23140,7 @@
         <f t="shared" si="5"/>
         <v>72.881355932203377</v>
       </c>
-      <c r="J74" s="175">
+      <c r="J74" s="178">
         <f>AVERAGE(I74:I76)</f>
         <v>72.408324532351699</v>
       </c>
@@ -22129,7 +23245,7 @@
         <f t="shared" si="5"/>
         <v>72.881355932203377</v>
       </c>
-      <c r="J77" s="175">
+      <c r="J77" s="178">
         <f>AVERAGE(I77:I79)</f>
         <v>65.182899577130669</v>
       </c>
@@ -22234,7 +23350,7 @@
         <f t="shared" si="5"/>
         <v>15.730337078651701</v>
       </c>
-      <c r="J80" s="175">
+      <c r="J80" s="178">
         <f>AVERAGE(I80:I82)</f>
         <v>17.033133178458385</v>
       </c>
@@ -22339,7 +23455,7 @@
         <f t="shared" si="5"/>
         <v>466.6666666666668</v>
       </c>
-      <c r="J83" s="178">
+      <c r="J83" s="179">
         <f>AVERAGE(I83:I85)</f>
         <v>487.17320261437925</v>
       </c>
@@ -22444,7 +23560,7 @@
         <f t="shared" si="5"/>
         <v>124.44444444444443</v>
       </c>
-      <c r="J86" s="175">
+      <c r="J86" s="178">
         <f>AVERAGE(I86:I88)</f>
         <v>104.27685604156191</v>
       </c>
@@ -22549,7 +23665,7 @@
         <f t="shared" si="5"/>
         <v>44.927536231884069</v>
       </c>
-      <c r="J89" s="175">
+      <c r="J89" s="178">
         <f>AVERAGE(I89:I91)</f>
         <v>44.988773219024296</v>
       </c>
@@ -22654,7 +23770,7 @@
         <f t="shared" si="5"/>
         <v>37.837837837837839</v>
       </c>
-      <c r="J92" s="175">
+      <c r="J92" s="178">
         <f>AVERAGE(I92:I94)</f>
         <v>38.56456456456457</v>
       </c>
@@ -22759,7 +23875,7 @@
         <f t="shared" si="5"/>
         <v>506.25000000000028</v>
       </c>
-      <c r="J95" s="178">
+      <c r="J95" s="179">
         <f>AVERAGE(I95:I97)</f>
         <v>544.04761904761892</v>
       </c>
@@ -22864,7 +23980,7 @@
         <f t="shared" si="5"/>
         <v>371.42857142857139</v>
       </c>
-      <c r="J98" s="178">
+      <c r="J98" s="179">
         <f>AVERAGE(I98:I100)</f>
         <v>366.23376623376629</v>
       </c>
@@ -22969,7 +24085,7 @@
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="J101" s="178">
+      <c r="J101" s="179">
         <f>AVERAGE(I101:I103)</f>
         <v>305.4957264957265</v>
       </c>
@@ -23074,7 +24190,7 @@
         <f t="shared" si="5"/>
         <v>44.285714285714292</v>
       </c>
-      <c r="J104" s="175">
+      <c r="J104" s="178">
         <f>AVERAGE(I104:I106)</f>
         <v>40.337480337480336</v>
       </c>
@@ -23179,7 +24295,7 @@
         <f t="shared" si="5"/>
         <v>161.5384615384616</v>
       </c>
-      <c r="J107" s="175">
+      <c r="J107" s="178">
         <f>AVERAGE(I107:I109)</f>
         <v>152.49453388988275</v>
       </c>
@@ -23284,7 +24400,7 @@
         <f t="shared" si="5"/>
         <v>23.456790123456756</v>
       </c>
-      <c r="J110" s="175">
+      <c r="J110" s="178">
         <f>AVERAGE(I110:I112)</f>
         <v>23.981139856021471</v>
       </c>
@@ -23389,7 +24505,7 @@
         <f t="shared" si="5"/>
         <v>27.160493827160458</v>
       </c>
-      <c r="J113" s="175">
+      <c r="J113" s="178">
         <f>AVERAGE(I113:I115)</f>
         <v>30.192386831275709</v>
       </c>
@@ -23494,7 +24610,7 @@
         <f t="shared" si="5"/>
         <v>19.277108433734931</v>
       </c>
-      <c r="J116" s="175">
+      <c r="J116" s="178">
         <f>AVERAGE(I116:I118)</f>
         <v>17.933639319181466</v>
       </c>
@@ -23599,7 +24715,7 @@
         <f t="shared" si="5"/>
         <v>55.384615384615408</v>
       </c>
-      <c r="J119" s="175">
+      <c r="J119" s="178">
         <f>AVERAGE(I119:I121)</f>
         <v>55.91418997668999</v>
       </c>
@@ -23704,7 +24820,7 @@
         <f t="shared" si="5"/>
         <v>592.85714285714334</v>
       </c>
-      <c r="J122" s="178">
+      <c r="J122" s="179">
         <f>AVERAGE(I122:I124)</f>
         <v>600.00000000000045</v>
       </c>
@@ -23820,7 +24936,7 @@
         <f t="shared" ref="I126:I188" si="6">(($G126-$H126)/$H126)*100</f>
         <v>88.135593220339018</v>
       </c>
-      <c r="J126" s="179">
+      <c r="J126" s="176">
         <v>89.04</v>
       </c>
       <c r="N126" s="151"/>
@@ -23918,7 +25034,7 @@
         <f t="shared" si="6"/>
         <v>27.659574468085108</v>
       </c>
-      <c r="J129" s="179">
+      <c r="J129" s="176">
         <v>29.81</v>
       </c>
       <c r="N129" s="151"/>
@@ -24016,7 +25132,7 @@
         <f t="shared" si="6"/>
         <v>368.18181818181819</v>
       </c>
-      <c r="J132" s="179">
+      <c r="J132" s="176">
         <v>397.44</v>
       </c>
       <c r="N132" s="151"/>
@@ -24114,7 +25230,7 @@
         <f t="shared" si="6"/>
         <v>52.702702702702688</v>
       </c>
-      <c r="J135" s="179">
+      <c r="J135" s="176">
         <v>49.23</v>
       </c>
       <c r="N135" s="151"/>
@@ -24212,7 +25328,7 @@
         <f t="shared" si="6"/>
         <v>64.516129032258078</v>
       </c>
-      <c r="J138" s="179">
+      <c r="J138" s="176">
         <v>62.59</v>
       </c>
       <c r="N138" s="151"/>
@@ -24310,7 +25426,7 @@
         <f t="shared" si="6"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="J141" s="179">
+      <c r="J141" s="176">
         <v>58.27</v>
       </c>
       <c r="N141" s="151"/>
@@ -24408,7 +25524,7 @@
         <f t="shared" si="6"/>
         <v>48.52941176470587</v>
       </c>
-      <c r="J144" s="179">
+      <c r="J144" s="176">
         <v>51.5</v>
       </c>
       <c r="N144" s="151"/>
@@ -24506,7 +25622,7 @@
         <f t="shared" si="6"/>
         <v>71.666666666666686</v>
       </c>
-      <c r="J147" s="179">
+      <c r="J147" s="176">
         <v>66.959999999999994</v>
       </c>
       <c r="N147" s="151"/>
@@ -24604,7 +25720,7 @@
         <f t="shared" si="6"/>
         <v>131.11111111111114</v>
       </c>
-      <c r="J150" s="179">
+      <c r="J150" s="176">
         <v>127.47</v>
       </c>
       <c r="N150" s="151"/>
@@ -24702,7 +25818,7 @@
         <f t="shared" si="6"/>
         <v>24.096385542168683</v>
       </c>
-      <c r="J153" s="179">
+      <c r="J153" s="176">
         <v>23.2</v>
       </c>
       <c r="N153" s="151"/>
@@ -24800,7 +25916,7 @@
         <f t="shared" si="6"/>
         <v>172.97297297297297</v>
       </c>
-      <c r="J156" s="179">
+      <c r="J156" s="176">
         <v>176.92</v>
       </c>
       <c r="N156" s="151"/>
@@ -24898,7 +26014,7 @@
         <f t="shared" si="6"/>
         <v>170.27027027027026</v>
       </c>
-      <c r="J159" s="179">
+      <c r="J159" s="176">
         <v>175.48</v>
       </c>
       <c r="N159" s="151"/>
@@ -24996,7 +26112,7 @@
         <f t="shared" si="6"/>
         <v>52.238805970149251</v>
       </c>
-      <c r="J162" s="179">
+      <c r="J162" s="176">
         <v>50.71</v>
       </c>
       <c r="N162" s="151"/>
@@ -25094,7 +26210,7 @@
         <f t="shared" si="6"/>
         <v>314.81481481481484</v>
       </c>
-      <c r="J165" s="179">
+      <c r="J165" s="176">
         <v>280.69</v>
       </c>
       <c r="N165" s="151"/>
@@ -25129,7 +26245,7 @@
         <v>69.354838709677423</v>
       </c>
       <c r="J166" s="177"/>
-      <c r="K166" s="180" t="s">
+      <c r="K166" s="167" t="s">
         <v>121</v>
       </c>
       <c r="N166" s="151"/>
@@ -25195,7 +26311,7 @@
         <f t="shared" si="6"/>
         <v>303.84615384615381</v>
       </c>
-      <c r="J168" s="179">
+      <c r="J168" s="176">
         <v>312.88</v>
       </c>
       <c r="N168" s="151"/>
@@ -25293,7 +26409,7 @@
         <f t="shared" si="6"/>
         <v>175.60975609756099</v>
       </c>
-      <c r="J171" s="179">
+      <c r="J171" s="176">
         <v>176.55</v>
       </c>
       <c r="N171" s="151"/>
@@ -25391,7 +26507,7 @@
         <f t="shared" si="6"/>
         <v>361.90476190476193</v>
       </c>
-      <c r="J174" s="179">
+      <c r="J174" s="176">
         <v>372.15</v>
       </c>
       <c r="N174" s="151"/>
@@ -25489,7 +26605,7 @@
         <f t="shared" si="6"/>
         <v>178.94736842105263</v>
       </c>
-      <c r="J177" s="179">
+      <c r="J177" s="176">
         <v>180.22</v>
       </c>
       <c r="N177" s="151"/>
@@ -25587,7 +26703,7 @@
         <f t="shared" si="6"/>
         <v>311.53846153846155</v>
       </c>
-      <c r="J180" s="179">
+      <c r="J180" s="176">
         <v>243.4</v>
       </c>
       <c r="N180" s="151"/>
@@ -25622,7 +26738,7 @@
         <v>66.666666666666671</v>
       </c>
       <c r="J181" s="177"/>
-      <c r="K181" s="180" t="s">
+      <c r="K181" s="167" t="s">
         <v>121</v>
       </c>
       <c r="N181" s="151"/>
@@ -25688,7 +26804,7 @@
         <f t="shared" si="6"/>
         <v>248.38709677419354</v>
       </c>
-      <c r="J183" s="179">
+      <c r="J183" s="176">
         <v>177.42</v>
       </c>
       <c r="N183" s="151"/>
@@ -25723,7 +26839,7 @@
         <v>46.376811594202913</v>
       </c>
       <c r="J184" s="177"/>
-      <c r="K184" s="180" t="s">
+      <c r="K184" s="167" t="s">
         <v>121</v>
       </c>
       <c r="N184" s="151"/>
@@ -25789,7 +26905,7 @@
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="J186" s="179">
+      <c r="J186" s="176">
         <v>346.43</v>
       </c>
       <c r="N186" s="151"/>
@@ -25880,7 +26996,7 @@
       </c>
       <c r="H189" s="160"/>
       <c r="I189" s="160"/>
-      <c r="J189" s="179">
+      <c r="J189" s="176">
         <v>345.45</v>
       </c>
       <c r="N189" s="151"/>
@@ -25971,7 +27087,7 @@
         <f t="shared" si="7"/>
         <v>151.16279069767444</v>
       </c>
-      <c r="J192" s="179">
+      <c r="J192" s="176">
         <v>165.89</v>
       </c>
       <c r="N192" s="151"/>
@@ -26069,7 +27185,7 @@
         <f t="shared" si="7"/>
         <v>22.619047619047628</v>
       </c>
-      <c r="J195" s="179">
+      <c r="J195" s="176">
         <v>23.99</v>
       </c>
       <c r="N195" s="151"/>
@@ -26167,7 +27283,7 @@
         <f t="shared" si="7"/>
         <v>316</v>
       </c>
-      <c r="J198" s="179">
+      <c r="J198" s="176">
         <v>329.97</v>
       </c>
       <c r="N198" s="151"/>
@@ -26265,7 +27381,7 @@
         <f t="shared" si="7"/>
         <v>358.33333333333337</v>
       </c>
-      <c r="J201" s="179">
+      <c r="J201" s="176">
         <v>321.56</v>
       </c>
       <c r="N201" s="151"/>
@@ -26363,7 +27479,7 @@
         <f t="shared" si="7"/>
         <v>47.887323943661983</v>
       </c>
-      <c r="J204" s="179">
+      <c r="J204" s="176">
         <v>49.56</v>
       </c>
       <c r="N204" s="151"/>
@@ -26461,7 +27577,7 @@
         <f t="shared" si="7"/>
         <v>53.968253968253968</v>
       </c>
-      <c r="J207" s="179">
+      <c r="J207" s="176">
         <v>59.77</v>
       </c>
       <c r="N207" s="151"/>
@@ -26559,7 +27675,7 @@
         <f t="shared" si="7"/>
         <v>79.661016949152568</v>
       </c>
-      <c r="J210" s="179">
+      <c r="J210" s="176">
         <v>81.55</v>
       </c>
       <c r="N210" s="151"/>
@@ -26657,7 +27773,7 @@
         <f t="shared" si="7"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="J213" s="179">
+      <c r="J213" s="176">
         <v>57.35</v>
       </c>
       <c r="N213" s="151"/>
@@ -26755,7 +27871,7 @@
         <f t="shared" si="7"/>
         <v>49.333333333333343</v>
       </c>
-      <c r="J216" s="179">
+      <c r="J216" s="176">
         <v>49.27</v>
       </c>
       <c r="N216" s="151"/>
@@ -26853,7 +27969,7 @@
         <f t="shared" si="7"/>
         <v>47.692307692307686</v>
       </c>
-      <c r="J219" s="179">
+      <c r="J219" s="176">
         <v>51.28</v>
       </c>
       <c r="N219" s="151"/>
@@ -26946,7 +28062,7 @@
         <v>1.6</v>
       </c>
       <c r="H222" s="160">
-        <f>$G222-$D222</f>
+        <f t="shared" ref="H222:H233" si="9">$G222-$D222</f>
         <v>0.59000000000000008</v>
       </c>
       <c r="I222" s="155">
@@ -26979,7 +28095,7 @@
         <v>1.73</v>
       </c>
       <c r="H223" s="160">
-        <f>$G223-$D223</f>
+        <f t="shared" si="9"/>
         <v>0.73</v>
       </c>
       <c r="I223" s="155">
@@ -27012,7 +28128,7 @@
         <v>1.48</v>
       </c>
       <c r="H224" s="160">
-        <f>$G224-$D224</f>
+        <f t="shared" si="9"/>
         <v>0.49</v>
       </c>
       <c r="I224" s="155">
@@ -27045,7 +28161,7 @@
         <v>1.79</v>
       </c>
       <c r="H225" s="160">
-        <f>$G225-$D225</f>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="I225" s="155">
@@ -27078,7 +28194,7 @@
         <v>1.28</v>
       </c>
       <c r="H226" s="160">
-        <f>$G226-$D226</f>
+        <f t="shared" si="9"/>
         <v>0.26</v>
       </c>
       <c r="I226" s="155">
@@ -27111,7 +28227,7 @@
         <v>1.9</v>
       </c>
       <c r="H227" s="160">
-        <f>$G227-$D227</f>
+        <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="I227" s="155">
@@ -27144,7 +28260,7 @@
         <v>1.56</v>
       </c>
       <c r="H228" s="160">
-        <f>$G228-$D228</f>
+        <f t="shared" si="9"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="I228" s="155">
@@ -27177,7 +28293,7 @@
         <v>1.41</v>
       </c>
       <c r="H229" s="160">
-        <f>$G229-$D229</f>
+        <f t="shared" si="9"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="I229" s="155">
@@ -27210,7 +28326,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="H230" s="160">
-        <f>$G230-$D230</f>
+        <f t="shared" si="9"/>
         <v>0.10999999999999988</v>
       </c>
       <c r="I230" s="155">
@@ -27243,7 +28359,7 @@
         <v>1.3</v>
       </c>
       <c r="H231" s="160">
-        <f>$G231-$D231</f>
+        <f t="shared" si="9"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="I231" s="155">
@@ -27276,7 +28392,7 @@
         <v>1.25</v>
       </c>
       <c r="H232" s="160">
-        <f>$G232-$D232</f>
+        <f t="shared" si="9"/>
         <v>0.26</v>
       </c>
       <c r="I232" s="155">
@@ -27309,7 +28425,7 @@
         <v>1.73</v>
       </c>
       <c r="H233" s="160">
-        <f>$G233-$D233</f>
+        <f t="shared" si="9"/>
         <v>0.72</v>
       </c>
       <c r="I233" s="155">
@@ -33899,48 +35015,24 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="J219:J221"/>
-    <mergeCell ref="J213:J215"/>
-    <mergeCell ref="J216:J218"/>
-    <mergeCell ref="J198:J200"/>
-    <mergeCell ref="J189:J191"/>
-    <mergeCell ref="J192:J194"/>
-    <mergeCell ref="J207:J209"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="J201:J203"/>
-    <mergeCell ref="J204:J206"/>
-    <mergeCell ref="J183:J185"/>
-    <mergeCell ref="J186:J188"/>
-    <mergeCell ref="J177:J179"/>
-    <mergeCell ref="J180:J182"/>
-    <mergeCell ref="J195:J197"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="J171:J173"/>
-    <mergeCell ref="J174:J176"/>
-    <mergeCell ref="J165:J167"/>
-    <mergeCell ref="J168:J170"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="J150:J152"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="J144:J146"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J37"/>
     <mergeCell ref="J92:J94"/>
     <mergeCell ref="J59:J61"/>
     <mergeCell ref="J62:J64"/>
@@ -33953,24 +35045,48 @@
     <mergeCell ref="J83:J85"/>
     <mergeCell ref="J86:J88"/>
     <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="J150:J152"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="J171:J173"/>
+    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="J168:J170"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="J186:J188"/>
+    <mergeCell ref="J177:J179"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="J195:J197"/>
+    <mergeCell ref="J219:J221"/>
+    <mergeCell ref="J213:J215"/>
+    <mergeCell ref="J216:J218"/>
+    <mergeCell ref="J198:J200"/>
+    <mergeCell ref="J189:J191"/>
+    <mergeCell ref="J192:J194"/>
+    <mergeCell ref="J207:J209"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="J201:J203"/>
+    <mergeCell ref="J204:J206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -33982,10 +35098,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99:Z117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39103,7 +40219,7 @@
       <c r="R96" s="116"/>
       <c r="S96" s="41"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>52</v>
       </c>
@@ -39151,7 +40267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>52</v>
       </c>
@@ -39199,368 +40315,972 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="11"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="127"/>
-      <c r="L99" s="113"/>
-      <c r="M99" s="99"/>
-      <c r="N99" s="99"/>
-      <c r="O99" s="99"/>
-      <c r="P99" s="132"/>
-      <c r="Q99" s="115"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="41"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="11"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="126"/>
-      <c r="H100" s="126"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="127"/>
-      <c r="K100" s="127"/>
-      <c r="L100" s="113"/>
-      <c r="M100" s="99"/>
-      <c r="N100" s="99"/>
-      <c r="O100" s="99"/>
-      <c r="P100" s="132"/>
-      <c r="Q100" s="115"/>
-      <c r="R100" s="116"/>
-      <c r="S100" s="41"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="11"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="126"/>
-      <c r="H101" s="126"/>
-      <c r="I101" s="112"/>
-      <c r="J101" s="127"/>
-      <c r="K101" s="127"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
-      <c r="O101" s="99"/>
-      <c r="P101" s="132"/>
-      <c r="Q101" s="115"/>
-      <c r="R101" s="116"/>
-      <c r="S101" s="41"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="11"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="126"/>
-      <c r="H102" s="126"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="127"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="99"/>
-      <c r="N102" s="99"/>
-      <c r="O102" s="99"/>
-      <c r="P102" s="132"/>
-      <c r="Q102" s="115"/>
-      <c r="R102" s="116"/>
-      <c r="S102" s="41"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="11"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="126"/>
-      <c r="H103" s="126"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="127"/>
-      <c r="K103" s="127"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="99"/>
-      <c r="N103" s="99"/>
-      <c r="O103" s="99"/>
-      <c r="P103" s="132"/>
-      <c r="Q103" s="115"/>
-      <c r="R103" s="116"/>
-      <c r="S103" s="41"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="11"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="126"/>
-      <c r="H104" s="126"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="127"/>
-      <c r="K104" s="127"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="99"/>
-      <c r="O104" s="99"/>
-      <c r="P104" s="132"/>
-      <c r="Q104" s="115"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="41"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="11"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="127"/>
-      <c r="K105" s="127"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="99"/>
-      <c r="N105" s="99"/>
-      <c r="O105" s="99"/>
-      <c r="P105" s="132"/>
-      <c r="Q105" s="115"/>
-      <c r="R105" s="116"/>
-      <c r="S105" s="41"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="11"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="126"/>
-      <c r="H106" s="126"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
-      <c r="L106" s="113"/>
-      <c r="M106" s="99"/>
-      <c r="N106" s="99"/>
-      <c r="O106" s="99"/>
-      <c r="P106" s="132"/>
-      <c r="Q106" s="115"/>
-      <c r="R106" s="116"/>
-      <c r="S106" s="41"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="11"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="126"/>
-      <c r="H107" s="126"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="127"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="99"/>
-      <c r="N107" s="99"/>
-      <c r="O107" s="99"/>
-      <c r="P107" s="132"/>
-      <c r="Q107" s="115"/>
-      <c r="R107" s="116"/>
-      <c r="S107" s="41"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="11"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="126"/>
-      <c r="H108" s="126"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="127"/>
-      <c r="L108" s="113"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="132"/>
-      <c r="Q108" s="115"/>
-      <c r="R108" s="116"/>
-      <c r="S108" s="41"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="11"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
-      <c r="G109" s="126"/>
-      <c r="H109" s="126"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="127"/>
-      <c r="L109" s="113"/>
-      <c r="M109" s="99"/>
-      <c r="N109" s="99"/>
-      <c r="O109" s="99"/>
-      <c r="P109" s="132"/>
-      <c r="Q109" s="115"/>
-      <c r="R109" s="116"/>
-      <c r="S109" s="41"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="11"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="126"/>
-      <c r="H110" s="126"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="127"/>
-      <c r="L110" s="113"/>
-      <c r="M110" s="99"/>
-      <c r="N110" s="99"/>
-      <c r="O110" s="99"/>
-      <c r="P110" s="132"/>
-      <c r="Q110" s="115"/>
-      <c r="R110" s="116"/>
-      <c r="S110" s="41"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="11"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="126"/>
-      <c r="H111" s="126"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="127"/>
-      <c r="K111" s="127"/>
-      <c r="L111" s="113"/>
-      <c r="M111" s="99"/>
-      <c r="N111" s="99"/>
-      <c r="O111" s="99"/>
-      <c r="P111" s="132"/>
-      <c r="Q111" s="115"/>
-      <c r="R111" s="116"/>
-      <c r="S111" s="41"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="11"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="126"/>
-      <c r="H112" s="126"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="127"/>
-      <c r="L112" s="113"/>
-      <c r="M112" s="99"/>
-      <c r="N112" s="99"/>
-      <c r="O112" s="99"/>
-      <c r="P112" s="132"/>
-      <c r="Q112" s="115"/>
-      <c r="R112" s="116"/>
-      <c r="S112" s="41"/>
-    </row>
-    <row r="113" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="11"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="126"/>
-      <c r="H113" s="126"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="127"/>
-      <c r="L113" s="113"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="99"/>
-      <c r="O113" s="99"/>
-      <c r="P113" s="132"/>
-      <c r="Q113" s="115"/>
-      <c r="R113" s="116"/>
-      <c r="S113" s="41"/>
-    </row>
-    <row r="114" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="11"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="I114" s="112"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="127"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="99"/>
-      <c r="P114" s="132"/>
-      <c r="Q114" s="115"/>
-      <c r="R114" s="116"/>
-      <c r="S114" s="41"/>
-    </row>
-    <row r="115" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="11"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="126"/>
-      <c r="H115" s="126"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="127"/>
-      <c r="K115" s="127"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="99"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="99"/>
-      <c r="P115" s="132"/>
-      <c r="Q115" s="115"/>
-      <c r="R115" s="116"/>
-      <c r="S115" s="41"/>
-    </row>
-    <row r="116" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="11"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="99"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="126"/>
-      <c r="H116" s="126"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="127"/>
-      <c r="K116" s="127"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="99"/>
-      <c r="N116" s="99"/>
-      <c r="O116" s="99"/>
-      <c r="P116" s="132"/>
-      <c r="Q116" s="115"/>
-      <c r="R116" s="116"/>
-      <c r="S116" s="41"/>
-    </row>
-    <row r="117" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="11"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99"/>
-      <c r="F117" s="99"/>
-      <c r="G117" s="126"/>
-      <c r="H117" s="126"/>
-      <c r="I117" s="112"/>
-      <c r="J117" s="127"/>
-      <c r="K117" s="127"/>
-      <c r="L117" s="113"/>
-      <c r="M117" s="99"/>
-      <c r="N117" s="99"/>
-      <c r="O117" s="99"/>
-      <c r="P117" s="132"/>
-      <c r="Q117" s="115"/>
-      <c r="R117" s="116"/>
-      <c r="S117" s="41"/>
-    </row>
-    <row r="118" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="181">
+        <v>43893</v>
+      </c>
+      <c r="B99" s="182"/>
+      <c r="C99" s="182"/>
+      <c r="D99" s="182"/>
+      <c r="E99" s="182"/>
+      <c r="F99" s="182"/>
+      <c r="G99" s="182"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="182"/>
+      <c r="J99" s="182"/>
+      <c r="K99" s="182"/>
+      <c r="L99" s="182"/>
+      <c r="M99" s="182"/>
+      <c r="N99" s="182"/>
+      <c r="O99" s="182"/>
+      <c r="P99" s="182"/>
+      <c r="Q99" s="182"/>
+      <c r="R99" s="182"/>
+      <c r="S99" s="182"/>
+      <c r="T99" s="182"/>
+      <c r="U99" s="182"/>
+      <c r="V99" s="182"/>
+      <c r="W99" s="182"/>
+      <c r="X99" s="182"/>
+      <c r="Y99" s="182"/>
+      <c r="Z99" s="182"/>
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="183">
+        <v>14</v>
+      </c>
+      <c r="B100" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="182">
+        <v>26.58</v>
+      </c>
+      <c r="D100" s="182"/>
+      <c r="E100" s="182"/>
+      <c r="F100" s="182"/>
+      <c r="G100" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H100" s="182">
+        <v>1.9</v>
+      </c>
+      <c r="I100" s="184">
+        <v>1.92</v>
+      </c>
+      <c r="J100" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K100" s="182">
+        <v>1.9</v>
+      </c>
+      <c r="L100" s="184">
+        <v>0.67</v>
+      </c>
+      <c r="M100" s="182"/>
+      <c r="N100" s="182"/>
+      <c r="O100" s="182"/>
+      <c r="P100" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="184">
+        <v>10.19</v>
+      </c>
+      <c r="R100" s="182">
+        <v>35.79</v>
+      </c>
+      <c r="S100" s="182"/>
+      <c r="T100" s="182"/>
+      <c r="U100" s="182"/>
+      <c r="V100" s="182"/>
+      <c r="W100" s="182"/>
+      <c r="X100" s="182"/>
+      <c r="Y100" s="182"/>
+      <c r="Z100" s="182"/>
+    </row>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="183">
+        <v>14</v>
+      </c>
+      <c r="B101" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="182">
+        <v>49.28</v>
+      </c>
+      <c r="D101" s="182"/>
+      <c r="E101" s="182"/>
+      <c r="F101" s="182"/>
+      <c r="G101" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H101" s="182">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I101" s="184">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J101" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K101" s="182">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L101" s="184">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M101" s="182"/>
+      <c r="N101" s="182"/>
+      <c r="O101" s="182"/>
+      <c r="P101" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="184">
+        <v>10</v>
+      </c>
+      <c r="R101" s="184">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="S101" s="182"/>
+      <c r="T101" s="182"/>
+      <c r="U101" s="182"/>
+      <c r="V101" s="182"/>
+      <c r="W101" s="182"/>
+      <c r="X101" s="182"/>
+      <c r="Y101" s="182"/>
+      <c r="Z101" s="182"/>
+    </row>
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="183">
+        <v>48</v>
+      </c>
+      <c r="B102" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="182">
+        <v>225.81</v>
+      </c>
+      <c r="D102" s="182"/>
+      <c r="E102" s="182"/>
+      <c r="F102" s="182"/>
+      <c r="G102" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H102" s="182">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I102" s="184">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J102" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K102" s="182">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="L102" s="184">
+        <v>1.64</v>
+      </c>
+      <c r="M102" s="182"/>
+      <c r="N102" s="182"/>
+      <c r="O102" s="182"/>
+      <c r="P102" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="184">
+        <v>10</v>
+      </c>
+      <c r="R102" s="184">
+        <v>14.7</v>
+      </c>
+      <c r="S102" s="182"/>
+      <c r="T102" s="182"/>
+      <c r="U102" s="182"/>
+      <c r="V102" s="182"/>
+      <c r="W102" s="182"/>
+      <c r="X102" s="182"/>
+      <c r="Y102" s="182"/>
+      <c r="Z102" s="182"/>
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="183">
+        <v>48</v>
+      </c>
+      <c r="B103" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="182">
+        <v>148.78</v>
+      </c>
+      <c r="D103" s="182"/>
+      <c r="E103" s="182"/>
+      <c r="F103" s="182"/>
+      <c r="G103" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H103" s="182">
+        <v>3.73</v>
+      </c>
+      <c r="I103" s="184">
+        <v>3.74</v>
+      </c>
+      <c r="J103" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K103" s="182">
+        <v>3.73</v>
+      </c>
+      <c r="L103" s="184">
+        <v>1.87</v>
+      </c>
+      <c r="M103" s="182"/>
+      <c r="N103" s="182"/>
+      <c r="O103" s="182"/>
+      <c r="P103" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q103" s="184">
+        <v>10.01</v>
+      </c>
+      <c r="R103" s="184">
+        <v>89.42</v>
+      </c>
+      <c r="S103" s="182"/>
+      <c r="T103" s="182"/>
+      <c r="U103" s="182"/>
+      <c r="V103" s="182"/>
+      <c r="W103" s="182"/>
+      <c r="X103" s="182"/>
+      <c r="Y103" s="182"/>
+      <c r="Z103" s="182"/>
+    </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="183">
+        <v>35</v>
+      </c>
+      <c r="B104" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="182">
+        <v>44.29</v>
+      </c>
+      <c r="D104" s="182"/>
+      <c r="E104" s="182"/>
+      <c r="F104" s="182"/>
+      <c r="G104" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H104" s="182">
+        <v>2.16</v>
+      </c>
+      <c r="I104" s="184">
+        <v>2.17</v>
+      </c>
+      <c r="J104" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K104" s="182">
+        <v>2.16</v>
+      </c>
+      <c r="L104" s="184">
+        <v>1.29</v>
+      </c>
+      <c r="M104" s="182"/>
+      <c r="N104" s="182"/>
+      <c r="O104" s="182"/>
+      <c r="P104" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q104" s="184">
+        <v>10.07</v>
+      </c>
+      <c r="R104" s="184">
+        <v>36.67</v>
+      </c>
+      <c r="S104" s="182"/>
+      <c r="T104" s="182"/>
+      <c r="U104" s="182"/>
+      <c r="V104" s="182"/>
+      <c r="W104" s="182"/>
+      <c r="X104" s="182"/>
+      <c r="Y104" s="182"/>
+      <c r="Z104" s="182"/>
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="183">
+        <v>35</v>
+      </c>
+      <c r="B105" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="182">
+        <v>40.28</v>
+      </c>
+      <c r="D105" s="182"/>
+      <c r="E105" s="182"/>
+      <c r="F105" s="182"/>
+      <c r="G105" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H105" s="182">
+        <v>2.1</v>
+      </c>
+      <c r="I105" s="184">
+        <v>2.1</v>
+      </c>
+      <c r="J105" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K105" s="182">
+        <v>2.1</v>
+      </c>
+      <c r="L105" s="184">
+        <v>2.11</v>
+      </c>
+      <c r="M105" s="182"/>
+      <c r="N105" s="182"/>
+      <c r="O105" s="182"/>
+      <c r="P105" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="184">
+        <v>10.15</v>
+      </c>
+      <c r="R105" s="184">
+        <v>17.61</v>
+      </c>
+      <c r="S105" s="182"/>
+      <c r="T105" s="182"/>
+      <c r="U105" s="182"/>
+      <c r="V105" s="182"/>
+      <c r="W105" s="182"/>
+      <c r="X105" s="182"/>
+      <c r="Y105" s="182"/>
+      <c r="Z105" s="182"/>
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="183">
+        <v>49</v>
+      </c>
+      <c r="B106" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="182">
+        <v>334.78</v>
+      </c>
+      <c r="D106" s="182"/>
+      <c r="E106" s="182"/>
+      <c r="F106" s="182"/>
+      <c r="G106" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H106" s="182">
+        <v>6.52</v>
+      </c>
+      <c r="I106" s="184">
+        <v>6.52</v>
+      </c>
+      <c r="J106" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K106" s="182">
+        <v>6.52</v>
+      </c>
+      <c r="L106" s="184">
+        <v>1.2</v>
+      </c>
+      <c r="M106" s="182"/>
+      <c r="N106" s="182"/>
+      <c r="O106" s="182"/>
+      <c r="P106" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="184">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R106" s="184">
+        <v>2.8</v>
+      </c>
+      <c r="S106" s="182"/>
+      <c r="T106" s="182"/>
+      <c r="U106" s="182"/>
+      <c r="V106" s="182"/>
+      <c r="W106" s="182"/>
+      <c r="X106" s="182"/>
+      <c r="Y106" s="182"/>
+      <c r="Z106" s="182"/>
+    </row>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="183">
+        <v>49</v>
+      </c>
+      <c r="B107" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="182">
+        <v>233.33</v>
+      </c>
+      <c r="D107" s="182"/>
+      <c r="E107" s="182"/>
+      <c r="F107" s="182"/>
+      <c r="G107" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H107" s="182">
+        <v>5</v>
+      </c>
+      <c r="I107" s="184">
+        <v>5.05</v>
+      </c>
+      <c r="J107" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K107" s="182">
+        <v>5</v>
+      </c>
+      <c r="L107" s="184">
+        <v>1.84</v>
+      </c>
+      <c r="M107" s="182"/>
+      <c r="N107" s="182"/>
+      <c r="O107" s="182"/>
+      <c r="P107" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q107" s="184">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R107" s="184">
+        <v>11.23</v>
+      </c>
+      <c r="S107" s="182"/>
+      <c r="T107" s="182"/>
+      <c r="U107" s="182"/>
+      <c r="V107" s="182"/>
+      <c r="W107" s="182"/>
+      <c r="X107" s="182"/>
+      <c r="Y107" s="182"/>
+      <c r="Z107" s="182"/>
+    </row>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="183">
+        <v>8</v>
+      </c>
+      <c r="B108" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="182">
+        <v>44.93</v>
+      </c>
+      <c r="D108" s="182"/>
+      <c r="E108" s="182"/>
+      <c r="F108" s="182"/>
+      <c r="G108" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H108" s="182">
+        <v>2.17</v>
+      </c>
+      <c r="I108" s="184">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J108" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K108" s="182">
+        <v>2.17</v>
+      </c>
+      <c r="L108" s="184">
+        <v>1.75</v>
+      </c>
+      <c r="M108" s="182"/>
+      <c r="N108" s="182"/>
+      <c r="O108" s="182"/>
+      <c r="P108" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q108" s="184">
+        <v>10.07</v>
+      </c>
+      <c r="R108" s="184">
+        <v>53.33</v>
+      </c>
+      <c r="S108" s="182"/>
+      <c r="T108" s="182"/>
+      <c r="U108" s="182"/>
+      <c r="V108" s="182"/>
+      <c r="W108" s="182"/>
+      <c r="X108" s="182"/>
+      <c r="Y108" s="182"/>
+      <c r="Z108" s="182"/>
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="183">
+        <v>8</v>
+      </c>
+      <c r="B109" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="182">
+        <v>60.32</v>
+      </c>
+      <c r="D109" s="182"/>
+      <c r="E109" s="182"/>
+      <c r="F109" s="182"/>
+      <c r="G109" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H109" s="182">
+        <v>2.4</v>
+      </c>
+      <c r="I109" s="184">
+        <v>2.4</v>
+      </c>
+      <c r="J109" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K109" s="182">
+        <v>2.4</v>
+      </c>
+      <c r="L109" s="184">
+        <v>2.42</v>
+      </c>
+      <c r="M109" s="182"/>
+      <c r="N109" s="182"/>
+      <c r="O109" s="182"/>
+      <c r="P109" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="184">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R109" s="184">
+        <v>118.87</v>
+      </c>
+      <c r="S109" s="182"/>
+      <c r="T109" s="182"/>
+      <c r="U109" s="182"/>
+      <c r="V109" s="182"/>
+      <c r="W109" s="182"/>
+      <c r="X109" s="182"/>
+      <c r="Y109" s="182"/>
+      <c r="Z109" s="182"/>
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="183">
+        <v>46</v>
+      </c>
+      <c r="B110" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="182">
+        <v>334.78</v>
+      </c>
+      <c r="D110" s="182"/>
+      <c r="E110" s="182"/>
+      <c r="F110" s="182"/>
+      <c r="G110" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H110" s="182">
+        <v>6.52</v>
+      </c>
+      <c r="I110" s="184">
+        <v>6.53</v>
+      </c>
+      <c r="J110" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K110" s="182">
+        <v>6.52</v>
+      </c>
+      <c r="L110" s="184">
+        <v>1.63</v>
+      </c>
+      <c r="M110" s="182"/>
+      <c r="N110" s="182"/>
+      <c r="O110" s="182"/>
+      <c r="P110" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q110" s="184">
+        <v>10.01</v>
+      </c>
+      <c r="R110" s="184">
+        <v>10.87</v>
+      </c>
+      <c r="S110" s="182"/>
+      <c r="T110" s="182"/>
+      <c r="U110" s="182"/>
+      <c r="V110" s="182"/>
+      <c r="W110" s="182"/>
+      <c r="X110" s="182"/>
+      <c r="Y110" s="182"/>
+      <c r="Z110" s="182"/>
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="183">
+        <v>46</v>
+      </c>
+      <c r="B111" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="182">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="D111" s="182"/>
+      <c r="E111" s="182"/>
+      <c r="F111" s="182"/>
+      <c r="G111" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H111" s="182">
+        <v>2.48</v>
+      </c>
+      <c r="I111" s="184">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J111" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K111" s="182">
+        <v>2.48</v>
+      </c>
+      <c r="L111" s="184">
+        <v>2.48</v>
+      </c>
+      <c r="M111" s="182"/>
+      <c r="N111" s="182"/>
+      <c r="O111" s="182"/>
+      <c r="P111" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q111" s="184">
+        <v>10.01</v>
+      </c>
+      <c r="R111" s="184">
+        <v>55.32</v>
+      </c>
+      <c r="S111" s="182"/>
+      <c r="T111" s="182"/>
+      <c r="U111" s="182"/>
+      <c r="V111" s="182"/>
+      <c r="W111" s="182"/>
+      <c r="X111" s="182"/>
+      <c r="Y111" s="182"/>
+      <c r="Z111" s="182"/>
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="183">
+        <v>85</v>
+      </c>
+      <c r="B112" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="182">
+        <v>3.06</v>
+      </c>
+      <c r="D112" s="182"/>
+      <c r="E112" s="182"/>
+      <c r="F112" s="182"/>
+      <c r="G112" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H112" s="182">
+        <v>1.55</v>
+      </c>
+      <c r="I112" s="184">
+        <v>1.55</v>
+      </c>
+      <c r="J112" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K112" s="182">
+        <v>1.55</v>
+      </c>
+      <c r="L112" s="184">
+        <v>1.22</v>
+      </c>
+      <c r="M112" s="182"/>
+      <c r="N112" s="182"/>
+      <c r="O112" s="182"/>
+      <c r="P112" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q112" s="184">
+        <v>10</v>
+      </c>
+      <c r="R112" s="184">
+        <v>40.07</v>
+      </c>
+      <c r="S112" s="182"/>
+      <c r="T112" s="182"/>
+      <c r="U112" s="182"/>
+      <c r="V112" s="182"/>
+      <c r="W112" s="182"/>
+      <c r="X112" s="182"/>
+      <c r="Y112" s="182"/>
+      <c r="Z112" s="182"/>
+    </row>
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="183">
+        <v>85</v>
+      </c>
+      <c r="B113" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="182">
+        <v>34.67</v>
+      </c>
+      <c r="D113" s="182"/>
+      <c r="E113" s="182"/>
+      <c r="F113" s="182"/>
+      <c r="G113" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H113" s="182">
+        <v>2.02</v>
+      </c>
+      <c r="I113" s="184">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J113" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K113" s="182">
+        <v>2.02</v>
+      </c>
+      <c r="L113" s="184">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M113" s="182"/>
+      <c r="N113" s="182"/>
+      <c r="O113" s="182"/>
+      <c r="P113" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="184">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R113" s="184">
+        <v>29.47</v>
+      </c>
+      <c r="S113" s="182"/>
+      <c r="T113" s="182"/>
+      <c r="U113" s="182"/>
+      <c r="V113" s="182"/>
+      <c r="W113" s="182"/>
+      <c r="X113" s="182"/>
+      <c r="Y113" s="182"/>
+      <c r="Z113" s="182"/>
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="183">
+        <v>79</v>
+      </c>
+      <c r="B114" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="182">
+        <v>359.09</v>
+      </c>
+      <c r="D114" s="182"/>
+      <c r="E114" s="182"/>
+      <c r="F114" s="182"/>
+      <c r="G114" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H114" s="182">
+        <v>6.89</v>
+      </c>
+      <c r="I114" s="184">
+        <v>6.91</v>
+      </c>
+      <c r="J114" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K114" s="182">
+        <v>6.89</v>
+      </c>
+      <c r="L114" s="184">
+        <v>1.45</v>
+      </c>
+      <c r="M114" s="182"/>
+      <c r="N114" s="182"/>
+      <c r="O114" s="182"/>
+      <c r="P114" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q114" s="184">
+        <v>10.01</v>
+      </c>
+      <c r="R114" s="184">
+        <v>19.46</v>
+      </c>
+      <c r="S114" s="182"/>
+      <c r="T114" s="182"/>
+      <c r="U114" s="182"/>
+      <c r="V114" s="182"/>
+      <c r="W114" s="182"/>
+      <c r="X114" s="182"/>
+      <c r="Y114" s="182"/>
+      <c r="Z114" s="182"/>
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="183">
+        <v>79</v>
+      </c>
+      <c r="B115" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="182">
+        <v>316.67</v>
+      </c>
+      <c r="D115" s="182"/>
+      <c r="E115" s="182"/>
+      <c r="F115" s="182"/>
+      <c r="G115" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H115" s="182">
+        <v>6.25</v>
+      </c>
+      <c r="I115" s="184">
+        <v>6.27</v>
+      </c>
+      <c r="J115" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K115" s="182">
+        <v>6.25</v>
+      </c>
+      <c r="L115" s="184">
+        <v>1.63</v>
+      </c>
+      <c r="M115" s="182"/>
+      <c r="N115" s="182"/>
+      <c r="O115" s="182"/>
+      <c r="P115" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q115" s="184">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R115" s="182">
+        <v>87.8</v>
+      </c>
+      <c r="S115" s="182"/>
+      <c r="T115" s="182"/>
+      <c r="U115" s="182"/>
+      <c r="V115" s="182"/>
+      <c r="W115" s="182"/>
+      <c r="X115" s="182"/>
+      <c r="Y115" s="182"/>
+      <c r="Z115" s="182"/>
+    </row>
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="183">
+        <v>33</v>
+      </c>
+      <c r="B116" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="182">
+        <v>34.67</v>
+      </c>
+      <c r="D116" s="182"/>
+      <c r="E116" s="182"/>
+      <c r="F116" s="182"/>
+      <c r="G116" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H116" s="182">
+        <v>2.02</v>
+      </c>
+      <c r="I116" s="184">
+        <v>2.04</v>
+      </c>
+      <c r="J116" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K116" s="182">
+        <v>2.02</v>
+      </c>
+      <c r="L116" s="184">
+        <v>2.02</v>
+      </c>
+      <c r="M116" s="182"/>
+      <c r="N116" s="182"/>
+      <c r="O116" s="182"/>
+      <c r="P116" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q116" s="184">
+        <v>10.01</v>
+      </c>
+      <c r="R116" s="184">
+        <v>53.27</v>
+      </c>
+      <c r="S116" s="182"/>
+      <c r="T116" s="182"/>
+      <c r="U116" s="182"/>
+      <c r="V116" s="182"/>
+      <c r="W116" s="182"/>
+      <c r="X116" s="182"/>
+      <c r="Y116" s="182"/>
+      <c r="Z116" s="182"/>
+    </row>
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="182">
+        <v>33</v>
+      </c>
+      <c r="B117" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="182">
+        <v>31.58</v>
+      </c>
+      <c r="D117" s="182"/>
+      <c r="E117" s="182"/>
+      <c r="F117" s="182"/>
+      <c r="G117" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="H117" s="182">
+        <v>1.97</v>
+      </c>
+      <c r="I117" s="184">
+        <v>2</v>
+      </c>
+      <c r="J117" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="K117" s="182">
+        <v>1.97</v>
+      </c>
+      <c r="L117" s="184">
+        <v>1.98</v>
+      </c>
+      <c r="M117" s="182"/>
+      <c r="N117" s="182"/>
+      <c r="O117" s="182"/>
+      <c r="P117" s="182">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="184">
+        <v>10.1</v>
+      </c>
+      <c r="R117" s="184">
+        <v>15.79</v>
+      </c>
+      <c r="S117" s="182"/>
+      <c r="T117" s="182"/>
+      <c r="U117" s="182"/>
+      <c r="V117" s="182"/>
+      <c r="W117" s="182"/>
+      <c r="X117" s="182"/>
+      <c r="Y117" s="182"/>
+    </row>
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="11"/>
       <c r="D118" s="99"/>
       <c r="E118" s="99"/>
@@ -39579,7 +41299,7 @@
       <c r="R118" s="116"/>
       <c r="S118" s="41"/>
     </row>
-    <row r="119" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="11"/>
       <c r="D119" s="99"/>
       <c r="E119" s="99"/>
@@ -39598,7 +41318,7 @@
       <c r="R119" s="116"/>
       <c r="S119" s="41"/>
     </row>
-    <row r="120" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="11"/>
       <c r="D120" s="99"/>
       <c r="E120" s="99"/>
@@ -39617,7 +41337,7 @@
       <c r="R120" s="116"/>
       <c r="S120" s="41"/>
     </row>
-    <row r="121" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="11"/>
       <c r="D121" s="99"/>
       <c r="E121" s="99"/>
@@ -39636,7 +41356,7 @@
       <c r="R121" s="116"/>
       <c r="S121" s="41"/>
     </row>
-    <row r="122" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="11"/>
       <c r="D122" s="99"/>
       <c r="E122" s="99"/>
@@ -39655,7 +41375,7 @@
       <c r="R122" s="116"/>
       <c r="S122" s="41"/>
     </row>
-    <row r="123" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="11"/>
       <c r="D123" s="99"/>
       <c r="E123" s="99"/>
@@ -39674,7 +41394,7 @@
       <c r="R123" s="116"/>
       <c r="S123" s="41"/>
     </row>
-    <row r="124" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="11"/>
       <c r="D124" s="99"/>
       <c r="E124" s="99"/>
@@ -39693,7 +41413,7 @@
       <c r="R124" s="116"/>
       <c r="S124" s="41"/>
     </row>
-    <row r="125" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="11"/>
       <c r="D125" s="99"/>
       <c r="E125" s="99"/>
@@ -39712,7 +41432,7 @@
       <c r="R125" s="116"/>
       <c r="S125" s="41"/>
     </row>
-    <row r="126" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="11"/>
       <c r="D126" s="99"/>
       <c r="E126" s="99"/>
@@ -39731,7 +41451,7 @@
       <c r="R126" s="116"/>
       <c r="S126" s="41"/>
     </row>
-    <row r="127" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="11"/>
       <c r="D127" s="99"/>
       <c r="E127" s="99"/>
@@ -39750,7 +41470,7 @@
       <c r="R127" s="116"/>
       <c r="S127" s="41"/>
     </row>
-    <row r="128" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="11"/>
       <c r="D128" s="99"/>
       <c r="E128" s="99"/>
@@ -56350,7 +58070,7 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
